--- a/port_manual_berth.xlsx
+++ b/port_manual_berth.xlsx
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="port_manual_berth" sheetId="1" r:id="rId1"/>
     <sheet name="google_earth_history" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">port_manual_berth!$A$1:$E$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">port_manual_berth!$A$1:$E$115</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="244">
   <si>
     <t>port</t>
   </si>
@@ -1569,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1861,10 +1861,10 @@
         <v>106</v>
       </c>
       <c r="C17" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1872,47 +1872,47 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2">
         <v>7</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2">
         <v>7</v>
       </c>
       <c r="E19" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2">
         <v>7</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2">
         <v>6</v>
@@ -1940,13 +1940,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
         <v>7</v>
@@ -1957,13 +1957,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
         <v>7</v>
@@ -1974,16 +1974,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1991,13 +1991,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
         <v>6</v>
@@ -2008,13 +2008,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="2">
         <v>6</v>
@@ -2025,13 +2025,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="C27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
         <v>6</v>
@@ -2042,10 +2042,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
@@ -2059,13 +2059,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2">
         <v>6</v>
@@ -2076,13 +2076,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2">
         <v>6</v>
@@ -2093,16 +2093,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2110,13 +2110,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="C32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2">
         <v>5</v>
@@ -2127,13 +2127,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2">
         <v>5</v>
@@ -2144,13 +2144,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2">
         <v>5</v>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="C35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" s="2">
         <v>5</v>
@@ -2178,13 +2178,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="C36" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2">
         <v>5</v>
@@ -2195,13 +2195,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38" s="2">
         <v>5</v>
@@ -2229,13 +2229,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="C39" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" s="2">
         <v>5</v>
@@ -2246,47 +2246,47 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="C40" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>231</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="C41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2">
         <v>4</v>
       </c>
       <c r="E41" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
@@ -2297,13 +2297,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="C43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="2">
         <v>4</v>
@@ -2314,13 +2314,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C44" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="2">
         <v>4</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="C45" s="2">
         <v>2</v>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C46" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" s="2">
         <v>4</v>
@@ -2365,13 +2365,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2">
         <v>4</v>
@@ -2382,50 +2382,50 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C48" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" s="2">
         <v>4</v>
       </c>
       <c r="E48" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="C49" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="2">
         <v>4</v>
       </c>
       <c r="E49" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
         <v>3</v>
-      </c>
-      <c r="D50" s="2">
-        <v>4</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -2484,10 +2484,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -2501,13 +2501,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="C55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2">
         <v>3</v>
@@ -2518,13 +2518,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="C56" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2">
         <v>3</v>
@@ -2535,13 +2535,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>241</v>
+        <v>94</v>
       </c>
       <c r="C57" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2">
         <v>3</v>
@@ -2552,10 +2552,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
@@ -2569,10 +2569,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C59" s="2">
         <v>2</v>
@@ -2586,13 +2586,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2">
         <v>3</v>
@@ -2603,10 +2603,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -2620,13 +2620,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="C62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="2">
         <v>3</v>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2">
         <v>2</v>
@@ -2671,13 +2671,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="2">
         <v>3</v>
@@ -2688,10 +2688,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="C66" s="2">
         <v>2</v>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2">
         <v>3</v>
@@ -2722,13 +2722,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="C68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2">
         <v>3</v>
@@ -2739,13 +2739,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="C69" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="2">
         <v>3</v>
@@ -2756,10 +2756,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -2773,16 +2773,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="C71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -2790,16 +2790,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
       </c>
       <c r="D72" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -2807,10 +2807,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -2824,13 +2824,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C74" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="2">
         <v>2</v>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -2858,13 +2858,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C76" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2">
         <v>2</v>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -2892,10 +2892,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -2909,13 +2909,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="2">
         <v>2</v>
@@ -2926,10 +2926,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -2943,10 +2943,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C81" s="2">
         <v>2</v>
@@ -2960,13 +2960,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C82" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" s="2">
         <v>2</v>
@@ -2977,10 +2977,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C83" s="2">
         <v>2</v>
@@ -2994,13 +2994,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="C85" s="2">
         <v>2</v>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
@@ -3045,13 +3045,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C87" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="2">
         <v>2</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="C88" s="2">
         <v>1</v>
@@ -3079,10 +3079,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C89" s="2">
         <v>1</v>
@@ -3096,16 +3096,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="C90" s="2">
         <v>1</v>
       </c>
       <c r="D90" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" s="2">
         <v>0</v>
@@ -3113,16 +3113,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C91" s="2">
         <v>1</v>
       </c>
       <c r="D91" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="2">
         <v>0</v>
@@ -3130,10 +3130,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C92" s="2">
         <v>1</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C93" s="2">
         <v>1</v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C94" s="2">
         <v>1</v>
@@ -3181,10 +3181,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="C95" s="2">
         <v>1</v>
@@ -3198,10 +3198,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C96" s="2">
         <v>1</v>
@@ -3215,10 +3215,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2">
         <v>1</v>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2">
         <v>1</v>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="C99" s="2">
         <v>1</v>
@@ -3266,16 +3266,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>54</v>
+        <v>229</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="C100" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2">
         <v>0</v>
@@ -3283,16 +3283,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="C101" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2">
         <v>0</v>
@@ -3300,16 +3300,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2">
         <v>0</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="C103" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" s="2">
         <v>0</v>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -3351,10 +3351,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -3402,10 +3402,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -3419,10 +3419,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -3436,10 +3436,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -3470,10 +3470,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -3504,10 +3504,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -3521,10 +3521,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -3538,10 +3538,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -3550,91 +3550,6 @@
         <v>0</v>
       </c>
       <c r="E116" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="2">
-        <v>0</v>
-      </c>
-      <c r="D117" s="2">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C118" s="2">
-        <v>0</v>
-      </c>
-      <c r="D118" s="2">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C119" s="2">
-        <v>0</v>
-      </c>
-      <c r="D119" s="2">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C120" s="2">
-        <v>0</v>
-      </c>
-      <c r="D120" s="2">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C121" s="2">
-        <v>0</v>
-      </c>
-      <c r="D121" s="2">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3650,11 +3565,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/port_manual_berth.xlsx
+++ b/port_manual_berth.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauls\Documents\Projekte\China_European Ports\European-Ports-Ownership\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHK\Documents\Projekte\China_European Ports\European-Ports-Ownership\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFA7DD0-342C-408A-B0A5-B311D2D160CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F274FB24-5F9A-4C8C-9439-40EC0C5D0A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-13275" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="port_manual_berth" sheetId="1" r:id="rId1"/>
     <sheet name="google_earth_history" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">google_earth_history!$A$1:$Z$795</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">google_earth_history!$A$1:$Z$868</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">port_manual_berth!$A$1:$E$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="351">
   <si>
     <t>port</t>
   </si>
@@ -3912,13 +3912,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z866"/>
+  <dimension ref="A1:Z868"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C805" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C605" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C830" sqref="C830"/>
+      <selection pane="bottomRight" activeCell="G869" sqref="G869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6179,12 +6179,6 @@
       <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41">
-        <v>6</v>
-      </c>
-      <c r="G41">
-        <v>1180</v>
-      </c>
       <c r="H41">
         <f t="shared" si="0"/>
         <v>5200</v>
@@ -6245,12 +6239,6 @@
       <c r="E42">
         <v>4</v>
       </c>
-      <c r="F42">
-        <v>6</v>
-      </c>
-      <c r="G42">
-        <v>1180</v>
-      </c>
       <c r="H42">
         <f t="shared" si="0"/>
         <v>5200</v>
@@ -6311,12 +6299,6 @@
       <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>480</v>
-      </c>
       <c r="H43">
         <f t="shared" si="0"/>
         <v>4480</v>
@@ -6377,12 +6359,6 @@
       <c r="E44">
         <v>2</v>
       </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>480</v>
-      </c>
       <c r="H44">
         <f t="shared" si="0"/>
         <v>4480</v>
@@ -6443,12 +6419,6 @@
       <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45">
-        <v>4</v>
-      </c>
-      <c r="G45">
-        <v>480</v>
-      </c>
       <c r="H45">
         <f t="shared" si="0"/>
         <v>4480</v>
@@ -6509,12 +6479,6 @@
       <c r="E46">
         <v>4</v>
       </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <v>480</v>
-      </c>
       <c r="H46">
         <f t="shared" si="0"/>
         <v>4480</v>
@@ -6574,12 +6538,6 @@
       </c>
       <c r="E47">
         <v>3</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <v>480</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
@@ -24115,7 +24073,7 @@
         <v>2</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H640" si="12" xml:space="preserve"> SUM(J579:Y579)</f>
+        <f t="shared" ref="H579:H642" si="12" xml:space="preserve"> SUM(J579:Y579)</f>
         <v>1140</v>
       </c>
       <c r="I579">
@@ -24870,21 +24828,24 @@
       <c r="E605">
         <v>2</v>
       </c>
+      <c r="F605">
+        <v>6</v>
+      </c>
+      <c r="G605">
+        <v>1100</v>
+      </c>
       <c r="H605">
-        <f t="shared" si="12"/>
-        <v>2050</v>
+        <f xml:space="preserve"> SUM(J606:Y606)</f>
+        <v>1100</v>
       </c>
       <c r="I605">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J605">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="K605">
-        <v>1350</v>
-      </c>
-      <c r="Z605" t="s">
-        <v>280</v>
+        <v>450</v>
       </c>
     </row>
     <row r="606" spans="1:26" x14ac:dyDescent="0.35">
@@ -24898,23 +24859,32 @@
         <v>59</v>
       </c>
       <c r="D606">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E606">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F606">
+        <v>6</v>
+      </c>
+      <c r="G606">
+        <v>1100</v>
       </c>
       <c r="H606">
-        <f t="shared" si="12"/>
-        <v>2050</v>
+        <f xml:space="preserve"> SUM(J608:Y608)</f>
+        <v>450</v>
       </c>
       <c r="I606">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J606">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="K606">
-        <v>1350</v>
+        <v>450</v>
+      </c>
+      <c r="Z606" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="607" spans="1:26" x14ac:dyDescent="0.35">
@@ -24928,23 +24898,29 @@
         <v>59</v>
       </c>
       <c r="D607">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="E607">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F607">
+        <v>2</v>
+      </c>
+      <c r="G607">
+        <v>450</v>
       </c>
       <c r="H607">
-        <f t="shared" si="12"/>
-        <v>1350</v>
+        <f t="shared" ref="H607" si="13" xml:space="preserve"> SUM(J607:Y607)</f>
+        <v>450</v>
       </c>
       <c r="I607">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J607">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K607">
-        <v>650</v>
+        <v>450</v>
       </c>
     </row>
     <row r="608" spans="1:26" x14ac:dyDescent="0.35">
@@ -24952,26 +24928,35 @@
         <v>276</v>
       </c>
       <c r="B608" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="C608" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="D608">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="E608">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F608">
+        <v>2</v>
+      </c>
+      <c r="G608">
+        <v>450</v>
       </c>
       <c r="H608">
         <f t="shared" si="12"/>
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="I608">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J608">
-        <v>600</v>
+        <v>0</v>
+      </c>
+      <c r="K608">
+        <v>450</v>
       </c>
     </row>
     <row r="609" spans="1:26" x14ac:dyDescent="0.35">
@@ -24979,26 +24964,29 @@
         <v>276</v>
       </c>
       <c r="B609" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="C609" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="D609">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="E609">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H609">
         <f t="shared" si="12"/>
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="I609">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J609">
-        <v>600</v>
+        <v>0</v>
+      </c>
+      <c r="K609">
+        <v>450</v>
       </c>
     </row>
     <row r="610" spans="1:26" x14ac:dyDescent="0.35">
@@ -25012,7 +25000,7 @@
         <v>191</v>
       </c>
       <c r="D610">
-        <v>2005</v>
+        <v>2023</v>
       </c>
       <c r="E610">
         <v>3</v>
@@ -25022,7 +25010,7 @@
         <v>600</v>
       </c>
       <c r="I610">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J610">
         <v>600</v>
@@ -25033,26 +25021,26 @@
         <v>276</v>
       </c>
       <c r="B611" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="C611" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="D611">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="E611">
         <v>2</v>
       </c>
       <c r="H611">
         <f t="shared" si="12"/>
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="I611">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J611">
-        <v>640</v>
+        <v>600</v>
       </c>
     </row>
     <row r="612" spans="1:26" x14ac:dyDescent="0.35">
@@ -25060,26 +25048,26 @@
         <v>276</v>
       </c>
       <c r="B612" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="C612" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="D612">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E612">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H612">
         <f t="shared" si="12"/>
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="I612">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J612">
-        <v>640</v>
+        <v>600</v>
       </c>
     </row>
     <row r="613" spans="1:26" x14ac:dyDescent="0.35">
@@ -25087,26 +25075,26 @@
         <v>276</v>
       </c>
       <c r="B613" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="C613" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="D613">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E613">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H613">
         <f t="shared" si="12"/>
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="I613">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J613">
-        <v>1000</v>
+        <v>640</v>
       </c>
     </row>
     <row r="614" spans="1:26" x14ac:dyDescent="0.35">
@@ -25114,26 +25102,26 @@
         <v>276</v>
       </c>
       <c r="B614" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="C614" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="D614">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="E614">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H614">
         <f t="shared" si="12"/>
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="I614">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J614">
-        <v>1000</v>
+        <v>640</v>
       </c>
     </row>
     <row r="615" spans="1:26" x14ac:dyDescent="0.35">
@@ -25147,20 +25135,20 @@
         <v>122</v>
       </c>
       <c r="D615">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="E615">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H615">
         <f t="shared" si="12"/>
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="I615">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J615">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="616" spans="1:26" x14ac:dyDescent="0.35">
@@ -25168,26 +25156,26 @@
         <v>276</v>
       </c>
       <c r="B616" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C616" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="D616">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="E616">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H616">
         <f t="shared" si="12"/>
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="I616">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J616">
-        <v>820</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="617" spans="1:26" x14ac:dyDescent="0.35">
@@ -25195,26 +25183,26 @@
         <v>276</v>
       </c>
       <c r="B617" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C617" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="D617">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="E617">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H617">
         <f t="shared" si="12"/>
-        <v>820</v>
+        <v>700</v>
       </c>
       <c r="I617">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J617">
-        <v>820</v>
+        <v>700</v>
       </c>
     </row>
     <row r="618" spans="1:26" x14ac:dyDescent="0.35">
@@ -25228,17 +25216,17 @@
         <v>61</v>
       </c>
       <c r="D618">
-        <v>2004</v>
+        <v>2022</v>
       </c>
       <c r="E618">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H618">
         <f t="shared" si="12"/>
         <v>820</v>
       </c>
       <c r="I618">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J618">
         <v>820</v>
@@ -25249,32 +25237,26 @@
         <v>276</v>
       </c>
       <c r="B619" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C619" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D619">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="E619">
         <v>2</v>
       </c>
       <c r="H619">
         <f t="shared" si="12"/>
-        <v>1240</v>
+        <v>820</v>
       </c>
       <c r="I619">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J619">
-        <v>690</v>
-      </c>
-      <c r="K619">
-        <v>550</v>
-      </c>
-      <c r="Z619" t="s">
-        <v>281</v>
+        <v>820</v>
       </c>
     </row>
     <row r="620" spans="1:26" x14ac:dyDescent="0.35">
@@ -25282,29 +25264,26 @@
         <v>276</v>
       </c>
       <c r="B620" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C620" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D620">
-        <v>2021</v>
+        <v>2004</v>
       </c>
       <c r="E620">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H620">
         <f t="shared" si="12"/>
-        <v>1240</v>
+        <v>820</v>
       </c>
       <c r="I620">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J620">
-        <v>690</v>
-      </c>
-      <c r="K620">
-        <v>550</v>
+        <v>820</v>
       </c>
     </row>
     <row r="621" spans="1:26" x14ac:dyDescent="0.35">
@@ -25318,20 +25297,26 @@
         <v>78</v>
       </c>
       <c r="D621">
-        <v>2008</v>
+        <v>2023</v>
       </c>
       <c r="E621">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H621">
         <f t="shared" si="12"/>
-        <v>690</v>
+        <v>1240</v>
       </c>
       <c r="I621">
         <v>0</v>
       </c>
       <c r="J621">
         <v>690</v>
+      </c>
+      <c r="K621">
+        <v>550</v>
+      </c>
+      <c r="Z621" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="622" spans="1:26" x14ac:dyDescent="0.35">
@@ -25345,20 +25330,23 @@
         <v>78</v>
       </c>
       <c r="D622">
-        <v>2005</v>
+        <v>2021</v>
       </c>
       <c r="E622">
         <v>1</v>
       </c>
       <c r="H622">
         <f t="shared" si="12"/>
-        <v>500</v>
+        <v>1240</v>
       </c>
       <c r="I622">
         <v>0</v>
       </c>
       <c r="J622">
-        <v>500</v>
+        <v>690</v>
+      </c>
+      <c r="K622">
+        <v>550</v>
       </c>
     </row>
     <row r="623" spans="1:26" x14ac:dyDescent="0.35">
@@ -25366,26 +25354,26 @@
         <v>276</v>
       </c>
       <c r="B623" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C623" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="D623">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="E623">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H623">
         <f t="shared" si="12"/>
-        <v>440</v>
+        <v>690</v>
       </c>
       <c r="I623">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J623">
-        <v>440</v>
+        <v>690</v>
       </c>
     </row>
     <row r="624" spans="1:26" x14ac:dyDescent="0.35">
@@ -25393,26 +25381,26 @@
         <v>276</v>
       </c>
       <c r="B624" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C624" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="D624">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E624">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H624">
         <f t="shared" si="12"/>
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="I624">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J624">
-        <v>440</v>
+        <v>500</v>
       </c>
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.35">
@@ -25420,10 +25408,10 @@
         <v>276</v>
       </c>
       <c r="B625" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="C625" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="D625">
         <v>2023</v>
@@ -25433,13 +25421,13 @@
       </c>
       <c r="H625">
         <f t="shared" si="12"/>
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="I625">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J625">
-        <v>700</v>
+        <v>440</v>
       </c>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.35">
@@ -25447,26 +25435,26 @@
         <v>276</v>
       </c>
       <c r="B626" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="C626" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="D626">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="E626">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H626">
         <f t="shared" si="12"/>
-        <v>700</v>
+        <v>440</v>
       </c>
       <c r="I626">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J626">
-        <v>700</v>
+        <v>440</v>
       </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.35">
@@ -25480,17 +25468,17 @@
         <v>99</v>
       </c>
       <c r="D627">
-        <v>2005</v>
+        <v>2023</v>
       </c>
       <c r="E627">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H627">
         <f t="shared" si="12"/>
         <v>700</v>
       </c>
       <c r="I627">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J627">
         <v>700</v>
@@ -25498,53 +25486,56 @@
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B628" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C628" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D628">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="E628">
         <v>3</v>
       </c>
       <c r="H628">
         <f t="shared" si="12"/>
-        <v>370</v>
+        <v>700</v>
       </c>
       <c r="I628">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J628">
-        <v>370</v>
+        <v>700</v>
       </c>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B629" t="s">
-        <v>65</v>
+        <v>98</v>
+      </c>
+      <c r="C629" t="s">
+        <v>99</v>
       </c>
       <c r="D629">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="E629">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H629">
         <f t="shared" si="12"/>
-        <v>370</v>
+        <v>700</v>
       </c>
       <c r="I629">
         <v>4</v>
       </c>
       <c r="J629">
-        <v>370</v>
+        <v>700</v>
       </c>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.35">
@@ -25554,18 +25545,21 @@
       <c r="B630" t="s">
         <v>65</v>
       </c>
+      <c r="C630" t="s">
+        <v>66</v>
+      </c>
       <c r="D630">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E630">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H630">
         <f t="shared" si="12"/>
         <v>370</v>
       </c>
       <c r="I630">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J630">
         <v>370</v>
@@ -25579,17 +25573,17 @@
         <v>65</v>
       </c>
       <c r="D631">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E631">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H631">
         <f t="shared" si="12"/>
         <v>370</v>
       </c>
       <c r="I631">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J631">
         <v>370</v>
@@ -25600,26 +25594,23 @@
         <v>275</v>
       </c>
       <c r="B632" t="s">
-        <v>158</v>
-      </c>
-      <c r="C632" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="D632">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="E632">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H632">
         <f t="shared" si="12"/>
-        <v>1140</v>
+        <v>370</v>
       </c>
       <c r="I632">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J632">
-        <v>1140</v>
+        <v>370</v>
       </c>
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.35">
@@ -25627,26 +25618,23 @@
         <v>275</v>
       </c>
       <c r="B633" t="s">
-        <v>158</v>
-      </c>
-      <c r="C633" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="D633">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E633">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H633">
         <f t="shared" si="12"/>
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="I633">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J633">
-        <v>930</v>
+        <v>370</v>
       </c>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.35">
@@ -25660,20 +25648,20 @@
         <v>159</v>
       </c>
       <c r="D634">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="E634">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H634">
         <f t="shared" si="12"/>
-        <v>720</v>
+        <v>1140</v>
       </c>
       <c r="I634">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J634">
-        <v>720</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.35">
@@ -25687,20 +25675,20 @@
         <v>159</v>
       </c>
       <c r="D635">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="E635">
         <v>2</v>
       </c>
       <c r="H635">
         <f t="shared" si="12"/>
-        <v>370</v>
+        <v>930</v>
       </c>
       <c r="I635">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J635">
-        <v>370</v>
+        <v>930</v>
       </c>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.35">
@@ -25714,20 +25702,20 @@
         <v>159</v>
       </c>
       <c r="D636">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="E636">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H636">
         <f t="shared" si="12"/>
-        <v>370</v>
+        <v>720</v>
       </c>
       <c r="I636">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J636">
-        <v>370</v>
+        <v>720</v>
       </c>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.35">
@@ -25735,26 +25723,26 @@
         <v>275</v>
       </c>
       <c r="B637" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="C637" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="D637">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E637">
         <v>2</v>
       </c>
       <c r="H637">
         <f t="shared" si="12"/>
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="I637">
         <v>3</v>
       </c>
       <c r="J637">
-        <v>290</v>
+        <v>370</v>
       </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.35">
@@ -25762,26 +25750,26 @@
         <v>275</v>
       </c>
       <c r="B638" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="C638" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="D638">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="E638">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H638">
         <f t="shared" si="12"/>
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="I638">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J638">
-        <v>290</v>
+        <v>370</v>
       </c>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.35">
@@ -25795,10 +25783,10 @@
         <v>93</v>
       </c>
       <c r="D639">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E639">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H639">
         <f t="shared" si="12"/>
@@ -25822,10 +25810,10 @@
         <v>93</v>
       </c>
       <c r="D640">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E640">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H640">
         <f t="shared" si="12"/>
@@ -25849,17 +25837,17 @@
         <v>93</v>
       </c>
       <c r="D641">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E641">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H641">
-        <f t="shared" ref="H641:H704" si="13" xml:space="preserve"> SUM(J641:Y641)</f>
+        <f t="shared" si="12"/>
         <v>290</v>
       </c>
       <c r="I641">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J641">
         <v>290</v>
@@ -25876,17 +25864,17 @@
         <v>93</v>
       </c>
       <c r="D642">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E642">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H642">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>290</v>
       </c>
       <c r="I642">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J642">
         <v>290</v>
@@ -25903,13 +25891,13 @@
         <v>93</v>
       </c>
       <c r="D643">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E643">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H643">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H643:H706" si="14" xml:space="preserve"> SUM(J643:Y643)</f>
         <v>290</v>
       </c>
       <c r="I643">
@@ -25930,13 +25918,13 @@
         <v>93</v>
       </c>
       <c r="D644">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="E644">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H644">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
       <c r="I644">
@@ -25951,26 +25939,26 @@
         <v>275</v>
       </c>
       <c r="B645" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C645" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D645">
-        <v>2024</v>
+        <v>2011</v>
       </c>
       <c r="E645">
         <v>1</v>
       </c>
       <c r="H645">
-        <f t="shared" si="13"/>
-        <v>695</v>
+        <f t="shared" si="14"/>
+        <v>290</v>
       </c>
       <c r="I645">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J645">
-        <v>695</v>
+        <v>290</v>
       </c>
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.35">
@@ -25978,26 +25966,26 @@
         <v>275</v>
       </c>
       <c r="B646" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C646" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D646">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="E646">
         <v>4</v>
       </c>
       <c r="H646">
-        <f t="shared" si="13"/>
-        <v>695</v>
+        <f t="shared" si="14"/>
+        <v>290</v>
       </c>
       <c r="I646">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J646">
-        <v>695</v>
+        <v>290</v>
       </c>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.35">
@@ -26011,20 +25999,20 @@
         <v>80</v>
       </c>
       <c r="D647">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E647">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H647">
-        <f t="shared" si="13"/>
-        <v>600</v>
+        <f t="shared" si="14"/>
+        <v>695</v>
       </c>
       <c r="I647">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J647">
-        <v>600</v>
+        <v>695</v>
       </c>
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.35">
@@ -26038,20 +26026,20 @@
         <v>80</v>
       </c>
       <c r="D648">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E648">
         <v>4</v>
       </c>
       <c r="H648">
-        <f t="shared" si="13"/>
-        <v>600</v>
+        <f t="shared" si="14"/>
+        <v>695</v>
       </c>
       <c r="I648">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J648">
-        <v>600</v>
+        <v>695</v>
       </c>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.35">
@@ -26065,17 +26053,17 @@
         <v>80</v>
       </c>
       <c r="D649">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E649">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H649">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>600</v>
       </c>
       <c r="I649">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J649">
         <v>600</v>
@@ -26092,17 +26080,17 @@
         <v>80</v>
       </c>
       <c r="D650">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="E650">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H650">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>600</v>
       </c>
       <c r="I650">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J650">
         <v>600</v>
@@ -26119,13 +26107,13 @@
         <v>80</v>
       </c>
       <c r="D651">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E651">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H651">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>600</v>
       </c>
       <c r="I651">
@@ -26146,20 +26134,20 @@
         <v>80</v>
       </c>
       <c r="D652">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="E652">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H652">
-        <f t="shared" si="13"/>
-        <v>450</v>
+        <f t="shared" si="14"/>
+        <v>600</v>
       </c>
       <c r="I652">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J652">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.35">
@@ -26173,20 +26161,20 @@
         <v>80</v>
       </c>
       <c r="D653">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="E653">
         <v>3</v>
       </c>
       <c r="H653">
-        <f t="shared" si="13"/>
-        <v>450</v>
+        <f t="shared" si="14"/>
+        <v>600</v>
       </c>
       <c r="I653">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J653">
-        <v>450</v>
+        <v>600</v>
       </c>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.35">
@@ -26194,26 +26182,26 @@
         <v>275</v>
       </c>
       <c r="B654" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="C654" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="D654">
-        <v>2024</v>
+        <v>2006</v>
       </c>
       <c r="E654">
         <v>2</v>
       </c>
       <c r="H654">
-        <f t="shared" si="13"/>
-        <v>565</v>
+        <f t="shared" si="14"/>
+        <v>450</v>
       </c>
       <c r="I654">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J654">
-        <v>565</v>
+        <v>450</v>
       </c>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.35">
@@ -26221,26 +26209,26 @@
         <v>275</v>
       </c>
       <c r="B655" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="C655" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="D655">
-        <v>2022</v>
+        <v>2005</v>
       </c>
       <c r="E655">
         <v>3</v>
       </c>
       <c r="H655">
-        <f t="shared" si="13"/>
-        <v>565</v>
+        <f t="shared" si="14"/>
+        <v>450</v>
       </c>
       <c r="I655">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J655">
-        <v>565</v>
+        <v>450</v>
       </c>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.35">
@@ -26254,17 +26242,17 @@
         <v>179</v>
       </c>
       <c r="D656">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E656">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H656">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>565</v>
       </c>
       <c r="I656">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J656">
         <v>565</v>
@@ -26281,13 +26269,13 @@
         <v>179</v>
       </c>
       <c r="D657">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="E657">
         <v>3</v>
       </c>
       <c r="H657">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>565</v>
       </c>
       <c r="I657">
@@ -26308,17 +26296,17 @@
         <v>179</v>
       </c>
       <c r="D658">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="E658">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H658">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>565</v>
       </c>
       <c r="I658">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J658">
         <v>565</v>
@@ -26335,17 +26323,17 @@
         <v>179</v>
       </c>
       <c r="D659">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="E659">
         <v>3</v>
       </c>
       <c r="H659">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>565</v>
       </c>
       <c r="I659">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J659">
         <v>565</v>
@@ -26362,13 +26350,13 @@
         <v>179</v>
       </c>
       <c r="D660">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="E660">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H660">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>565</v>
       </c>
       <c r="I660">
@@ -26389,17 +26377,17 @@
         <v>179</v>
       </c>
       <c r="D661">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E661">
         <v>3</v>
       </c>
       <c r="H661">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>565</v>
       </c>
       <c r="I661">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J661">
         <v>565</v>
@@ -26410,26 +26398,26 @@
         <v>275</v>
       </c>
       <c r="B662" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C662" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D662">
-        <v>2022</v>
+        <v>2005</v>
       </c>
       <c r="E662">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H662">
-        <f t="shared" si="13"/>
-        <v>450</v>
+        <f t="shared" si="14"/>
+        <v>565</v>
       </c>
       <c r="I662">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J662">
-        <v>450</v>
+        <v>565</v>
       </c>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.35">
@@ -26437,26 +26425,26 @@
         <v>275</v>
       </c>
       <c r="B663" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C663" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D663">
-        <v>2020</v>
+        <v>2003</v>
       </c>
       <c r="E663">
         <v>3</v>
       </c>
       <c r="H663">
-        <f t="shared" si="13"/>
-        <v>450</v>
+        <f t="shared" si="14"/>
+        <v>565</v>
       </c>
       <c r="I663">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J663">
-        <v>450</v>
+        <v>565</v>
       </c>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.35">
@@ -26470,17 +26458,17 @@
         <v>204</v>
       </c>
       <c r="D664">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E664">
         <v>2</v>
       </c>
       <c r="H664">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>450</v>
       </c>
       <c r="I664">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J664">
         <v>450</v>
@@ -26497,24 +26485,21 @@
         <v>204</v>
       </c>
       <c r="D665">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E665">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H665">
-        <f t="shared" si="13"/>
-        <v>705</v>
+        <f t="shared" si="14"/>
+        <v>450</v>
       </c>
       <c r="I665">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J665">
         <v>450</v>
       </c>
-      <c r="K665">
-        <v>255</v>
-      </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
@@ -26527,24 +26512,21 @@
         <v>204</v>
       </c>
       <c r="D666">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E666">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H666">
-        <f t="shared" si="13"/>
-        <v>705</v>
+        <f t="shared" si="14"/>
+        <v>450</v>
       </c>
       <c r="I666">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J666">
         <v>450</v>
       </c>
-      <c r="K666">
-        <v>255</v>
-      </c>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
@@ -26557,20 +26539,20 @@
         <v>204</v>
       </c>
       <c r="D667">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E667">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H667">
-        <f t="shared" si="13"/>
-        <v>420</v>
+        <f t="shared" si="14"/>
+        <v>705</v>
       </c>
       <c r="I667">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J667">
-        <v>165</v>
+        <v>450</v>
       </c>
       <c r="K667">
         <v>255</v>
@@ -26587,20 +26569,20 @@
         <v>204</v>
       </c>
       <c r="D668">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="E668">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H668">
-        <f t="shared" si="13"/>
-        <v>420</v>
+        <f t="shared" si="14"/>
+        <v>705</v>
       </c>
       <c r="I668">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J668">
-        <v>165</v>
+        <v>450</v>
       </c>
       <c r="K668">
         <v>255</v>
@@ -26617,13 +26599,13 @@
         <v>204</v>
       </c>
       <c r="D669">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="E669">
         <v>3</v>
       </c>
       <c r="H669">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>420</v>
       </c>
       <c r="I669">
@@ -26641,26 +26623,29 @@
         <v>275</v>
       </c>
       <c r="B670" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="C670" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="D670">
-        <v>2024</v>
+        <v>2007</v>
       </c>
       <c r="E670">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H670">
-        <f t="shared" si="13"/>
-        <v>1520</v>
+        <f t="shared" si="14"/>
+        <v>420</v>
       </c>
       <c r="I670">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J670">
-        <v>1520</v>
+        <v>165</v>
+      </c>
+      <c r="K670">
+        <v>255</v>
       </c>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.35">
@@ -26668,26 +26653,29 @@
         <v>275</v>
       </c>
       <c r="B671" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="C671" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="D671">
-        <v>2022</v>
+        <v>2005</v>
       </c>
       <c r="E671">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H671">
-        <f t="shared" si="13"/>
-        <v>1520</v>
+        <f t="shared" si="14"/>
+        <v>420</v>
       </c>
       <c r="I671">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J671">
-        <v>1520</v>
+        <v>165</v>
+      </c>
+      <c r="K671">
+        <v>255</v>
       </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.35">
@@ -26701,13 +26689,13 @@
         <v>131</v>
       </c>
       <c r="D672">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E672">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H672">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1520</v>
       </c>
       <c r="I672">
@@ -26728,13 +26716,13 @@
         <v>131</v>
       </c>
       <c r="D673">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="E673">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H673">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1520</v>
       </c>
       <c r="I673">
@@ -26755,13 +26743,13 @@
         <v>131</v>
       </c>
       <c r="D674">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E674">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H674">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1520</v>
       </c>
       <c r="I674">
@@ -26782,13 +26770,13 @@
         <v>131</v>
       </c>
       <c r="D675">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E675">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H675">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1520</v>
       </c>
       <c r="I675">
@@ -26809,13 +26797,13 @@
         <v>131</v>
       </c>
       <c r="D676">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E676">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H676">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1520</v>
       </c>
       <c r="I676">
@@ -26836,13 +26824,13 @@
         <v>131</v>
       </c>
       <c r="D677">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E677">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H677">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1520</v>
       </c>
       <c r="I677">
@@ -26863,13 +26851,13 @@
         <v>131</v>
       </c>
       <c r="D678">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="E678">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H678">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1520</v>
       </c>
       <c r="I678">
@@ -26890,13 +26878,13 @@
         <v>131</v>
       </c>
       <c r="D679">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="E679">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H679">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1520</v>
       </c>
       <c r="I679">
@@ -26911,26 +26899,26 @@
         <v>275</v>
       </c>
       <c r="B680" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C680" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="D680">
-        <v>2023</v>
+        <v>2004</v>
       </c>
       <c r="E680">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H680">
-        <f t="shared" si="13"/>
-        <v>400</v>
+        <f t="shared" si="14"/>
+        <v>1520</v>
       </c>
       <c r="I680">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J680">
-        <v>400</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.35">
@@ -26938,26 +26926,26 @@
         <v>275</v>
       </c>
       <c r="B681" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C681" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="D681">
-        <v>2021</v>
+        <v>2002</v>
       </c>
       <c r="E681">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H681">
-        <f t="shared" si="13"/>
-        <v>400</v>
+        <f t="shared" si="14"/>
+        <v>1520</v>
       </c>
       <c r="I681">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J681">
-        <v>400</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.35">
@@ -26965,10 +26953,10 @@
         <v>275</v>
       </c>
       <c r="B682" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="C682" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="D682">
         <v>2023</v>
@@ -26977,17 +26965,14 @@
         <v>2</v>
       </c>
       <c r="H682">
-        <f t="shared" si="13"/>
-        <v>1930</v>
+        <f t="shared" si="14"/>
+        <v>400</v>
       </c>
       <c r="I682">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J682">
-        <v>580</v>
-      </c>
-      <c r="K682">
-        <v>1350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.35">
@@ -26995,26 +26980,26 @@
         <v>275</v>
       </c>
       <c r="B683" t="s">
-        <v>156</v>
+        <v>73</v>
+      </c>
+      <c r="C683" t="s">
+        <v>74</v>
       </c>
       <c r="D683">
         <v>2021</v>
       </c>
       <c r="E683">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H683">
-        <f t="shared" si="13"/>
-        <v>1930</v>
+        <f t="shared" si="14"/>
+        <v>400</v>
       </c>
       <c r="I683">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J683">
-        <v>580</v>
-      </c>
-      <c r="K683">
-        <v>1350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.35">
@@ -27024,18 +27009,21 @@
       <c r="B684" t="s">
         <v>156</v>
       </c>
+      <c r="C684" t="s">
+        <v>157</v>
+      </c>
       <c r="D684">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="E684">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H684">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1930</v>
       </c>
       <c r="I684">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J684">
         <v>580</v>
@@ -27052,17 +27040,17 @@
         <v>156</v>
       </c>
       <c r="D685">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E685">
         <v>3</v>
       </c>
       <c r="H685">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1930</v>
       </c>
       <c r="I685">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J685">
         <v>580</v>
@@ -27079,17 +27067,17 @@
         <v>156</v>
       </c>
       <c r="D686">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E686">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H686">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1930</v>
       </c>
       <c r="I686">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J686">
         <v>580</v>
@@ -27106,20 +27094,20 @@
         <v>156</v>
       </c>
       <c r="D687">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="E687">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H687">
-        <f t="shared" si="13"/>
-        <v>1350</v>
+        <f t="shared" si="14"/>
+        <v>1930</v>
       </c>
       <c r="I687">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J687">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="K687">
         <v>1350</v>
@@ -27133,20 +27121,20 @@
         <v>156</v>
       </c>
       <c r="D688">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="E688">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H688">
-        <f t="shared" si="13"/>
-        <v>1350</v>
+        <f t="shared" si="14"/>
+        <v>1930</v>
       </c>
       <c r="I688">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J688">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="K688">
         <v>1350</v>
@@ -27160,23 +27148,23 @@
         <v>156</v>
       </c>
       <c r="D689">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="E689">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H689">
-        <f t="shared" si="13"/>
-        <v>1250</v>
+        <f t="shared" si="14"/>
+        <v>1350</v>
       </c>
       <c r="I689">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J689">
         <v>0</v>
       </c>
       <c r="K689">
-        <v>1250</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.35">
@@ -27184,26 +27172,26 @@
         <v>275</v>
       </c>
       <c r="B690" t="s">
-        <v>146</v>
-      </c>
-      <c r="C690" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D690">
-        <v>2023</v>
+        <v>2005</v>
       </c>
       <c r="E690">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H690">
-        <f t="shared" si="13"/>
-        <v>680</v>
+        <f t="shared" si="14"/>
+        <v>1350</v>
       </c>
       <c r="I690">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J690">
-        <v>680</v>
+        <v>0</v>
+      </c>
+      <c r="K690">
+        <v>1350</v>
       </c>
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.35">
@@ -27211,26 +27199,26 @@
         <v>275</v>
       </c>
       <c r="B691" t="s">
-        <v>146</v>
-      </c>
-      <c r="C691" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D691">
-        <v>2021</v>
+        <v>1999</v>
       </c>
       <c r="E691">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H691">
-        <f t="shared" si="13"/>
-        <v>680</v>
+        <f t="shared" si="14"/>
+        <v>1250</v>
       </c>
       <c r="I691">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J691">
-        <v>680</v>
+        <v>0</v>
+      </c>
+      <c r="K691">
+        <v>1250</v>
       </c>
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.35">
@@ -27244,13 +27232,13 @@
         <v>147</v>
       </c>
       <c r="D692">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="E692">
         <v>2</v>
       </c>
       <c r="H692">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>680</v>
       </c>
       <c r="I692">
@@ -27271,13 +27259,13 @@
         <v>147</v>
       </c>
       <c r="D693">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="E693">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H693">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>680</v>
       </c>
       <c r="I693">
@@ -27298,13 +27286,13 @@
         <v>147</v>
       </c>
       <c r="D694">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="E694">
         <v>2</v>
       </c>
       <c r="H694">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>680</v>
       </c>
       <c r="I694">
@@ -27325,13 +27313,13 @@
         <v>147</v>
       </c>
       <c r="D695">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="E695">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H695">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>680</v>
       </c>
       <c r="I695">
@@ -27346,29 +27334,26 @@
         <v>275</v>
       </c>
       <c r="B696" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C696" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D696">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="E696">
         <v>2</v>
       </c>
       <c r="H696">
-        <f t="shared" si="13"/>
-        <v>970</v>
+        <f t="shared" si="14"/>
+        <v>680</v>
       </c>
       <c r="I696">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J696">
-        <v>565</v>
-      </c>
-      <c r="K696">
-        <v>405</v>
+        <v>680</v>
       </c>
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.35">
@@ -27376,29 +27361,26 @@
         <v>275</v>
       </c>
       <c r="B697" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C697" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D697">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="E697">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H697">
-        <f t="shared" si="13"/>
-        <v>970</v>
+        <f t="shared" si="14"/>
+        <v>680</v>
       </c>
       <c r="I697">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J697">
-        <v>565</v>
-      </c>
-      <c r="K697">
-        <v>405</v>
+        <v>680</v>
       </c>
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.35">
@@ -27412,23 +27394,23 @@
         <v>37</v>
       </c>
       <c r="D698">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E698">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H698">
-        <f t="shared" si="13"/>
-        <v>835</v>
+        <f t="shared" si="14"/>
+        <v>970</v>
       </c>
       <c r="I698">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J698">
         <v>565</v>
       </c>
       <c r="K698">
-        <v>270</v>
+        <v>405</v>
       </c>
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.35">
@@ -27442,23 +27424,23 @@
         <v>37</v>
       </c>
       <c r="D699">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E699">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H699">
-        <f t="shared" si="13"/>
-        <v>835</v>
+        <f t="shared" si="14"/>
+        <v>970</v>
       </c>
       <c r="I699">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J699">
         <v>565</v>
       </c>
       <c r="K699">
-        <v>270</v>
+        <v>405</v>
       </c>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.35">
@@ -27472,17 +27454,17 @@
         <v>37</v>
       </c>
       <c r="D700">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="E700">
         <v>3</v>
       </c>
       <c r="H700">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>835</v>
       </c>
       <c r="I700">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J700">
         <v>565</v>
@@ -27502,23 +27484,23 @@
         <v>37</v>
       </c>
       <c r="D701">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="E701">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H701">
-        <f t="shared" si="13"/>
-        <v>565</v>
+        <f t="shared" si="14"/>
+        <v>835</v>
       </c>
       <c r="I701">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J701">
         <v>565</v>
       </c>
       <c r="K701">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.35">
@@ -27532,23 +27514,23 @@
         <v>37</v>
       </c>
       <c r="D702">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="E702">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H702">
-        <f t="shared" si="13"/>
-        <v>565</v>
+        <f t="shared" si="14"/>
+        <v>835</v>
       </c>
       <c r="I702">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J702">
         <v>565</v>
       </c>
       <c r="K702">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.35">
@@ -27556,26 +27538,29 @@
         <v>275</v>
       </c>
       <c r="B703" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C703" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D703">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="E703">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H703">
-        <f t="shared" si="13"/>
-        <v>320</v>
+        <f t="shared" si="14"/>
+        <v>565</v>
       </c>
       <c r="I703">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J703">
-        <v>320</v>
+        <v>565</v>
+      </c>
+      <c r="K703">
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.35">
@@ -27583,26 +27568,29 @@
         <v>275</v>
       </c>
       <c r="B704" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C704" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D704">
-        <v>2020</v>
+        <v>2003</v>
       </c>
       <c r="E704">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H704">
-        <f t="shared" si="13"/>
-        <v>320</v>
+        <f t="shared" si="14"/>
+        <v>565</v>
       </c>
       <c r="I704">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J704">
-        <v>320</v>
+        <v>565</v>
+      </c>
+      <c r="K704">
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.35">
@@ -27616,14 +27604,14 @@
         <v>31</v>
       </c>
       <c r="D705">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E705">
         <v>2</v>
       </c>
       <c r="H705">
-        <f t="shared" ref="H705:H768" si="14" xml:space="preserve"> SUM(J705:Y705)</f>
-        <v>610</v>
+        <f t="shared" si="14"/>
+        <v>320</v>
       </c>
       <c r="I705">
         <v>2</v>
@@ -27631,9 +27619,6 @@
       <c r="J705">
         <v>320</v>
       </c>
-      <c r="K705">
-        <v>290</v>
-      </c>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
@@ -27646,14 +27631,14 @@
         <v>31</v>
       </c>
       <c r="D706">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E706">
         <v>3</v>
       </c>
       <c r="H706">
         <f t="shared" si="14"/>
-        <v>610</v>
+        <v>320</v>
       </c>
       <c r="I706">
         <v>2</v>
@@ -27661,9 +27646,6 @@
       <c r="J706">
         <v>320</v>
       </c>
-      <c r="K706">
-        <v>290</v>
-      </c>
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
@@ -27676,17 +27658,17 @@
         <v>31</v>
       </c>
       <c r="D707">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E707">
         <v>2</v>
       </c>
       <c r="H707">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="H707:H770" si="15" xml:space="preserve"> SUM(J707:Y707)</f>
         <v>610</v>
       </c>
       <c r="I707">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J707">
         <v>320</v>
@@ -27706,13 +27688,13 @@
         <v>31</v>
       </c>
       <c r="D708">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="E708">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H708">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>610</v>
       </c>
       <c r="I708">
@@ -27736,20 +27718,20 @@
         <v>31</v>
       </c>
       <c r="D709">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="E709">
+        <v>2</v>
+      </c>
+      <c r="H709">
+        <f t="shared" si="15"/>
+        <v>610</v>
+      </c>
+      <c r="I709">
         <v>4</v>
       </c>
-      <c r="H709">
-        <f t="shared" si="14"/>
-        <v>290</v>
-      </c>
-      <c r="I709">
-        <v>2</v>
-      </c>
       <c r="J709">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="K709">
         <v>290</v>
@@ -27766,23 +27748,23 @@
         <v>31</v>
       </c>
       <c r="D710">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="E710">
         <v>1</v>
       </c>
       <c r="H710">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>610</v>
       </c>
       <c r="I710">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J710">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="K710">
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.35">
@@ -27796,23 +27778,23 @@
         <v>31</v>
       </c>
       <c r="D711">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="E711">
         <v>4</v>
       </c>
       <c r="H711">
-        <f t="shared" si="14"/>
-        <v>270</v>
+        <f t="shared" si="15"/>
+        <v>290</v>
       </c>
       <c r="I711">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J711">
         <v>0</v>
       </c>
       <c r="K711">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.35">
@@ -27820,26 +27802,29 @@
         <v>275</v>
       </c>
       <c r="B712" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C712" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D712">
-        <v>2023</v>
+        <v>2006</v>
       </c>
       <c r="E712">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H712">
-        <f t="shared" si="14"/>
-        <v>370</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="I712">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J712">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="K712">
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.35">
@@ -27847,26 +27832,29 @@
         <v>275</v>
       </c>
       <c r="B713" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C713" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D713">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="E713">
+        <v>4</v>
+      </c>
+      <c r="H713">
+        <f t="shared" si="15"/>
+        <v>270</v>
+      </c>
+      <c r="I713">
         <v>1</v>
       </c>
-      <c r="H713">
-        <f t="shared" si="14"/>
-        <v>480</v>
-      </c>
-      <c r="I713">
-        <v>2</v>
-      </c>
       <c r="J713">
-        <v>480</v>
+        <v>0</v>
+      </c>
+      <c r="K713">
+        <v>270</v>
       </c>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.35">
@@ -27880,20 +27868,20 @@
         <v>11</v>
       </c>
       <c r="D714">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E714">
         <v>3</v>
       </c>
       <c r="H714">
-        <f t="shared" si="14"/>
-        <v>480</v>
+        <f t="shared" si="15"/>
+        <v>370</v>
       </c>
       <c r="I714">
         <v>2</v>
       </c>
       <c r="J714">
-        <v>480</v>
+        <v>370</v>
       </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.35">
@@ -27907,20 +27895,20 @@
         <v>11</v>
       </c>
       <c r="D715">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="E715">
         <v>1</v>
       </c>
       <c r="H715">
-        <f t="shared" si="14"/>
-        <v>370</v>
+        <f t="shared" si="15"/>
+        <v>480</v>
       </c>
       <c r="I715">
         <v>2</v>
       </c>
       <c r="J715">
-        <v>370</v>
+        <v>480</v>
       </c>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.35">
@@ -27934,20 +27922,20 @@
         <v>11</v>
       </c>
       <c r="D716">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E716">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H716">
-        <f t="shared" si="14"/>
-        <v>370</v>
+        <f t="shared" si="15"/>
+        <v>480</v>
       </c>
       <c r="I716">
         <v>2</v>
       </c>
       <c r="J716">
-        <v>370</v>
+        <v>480</v>
       </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.35">
@@ -27961,20 +27949,20 @@
         <v>11</v>
       </c>
       <c r="D717">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="E717">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H717">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>370</v>
       </c>
       <c r="I717">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J717">
-        <v>0</v>
+        <v>370</v>
       </c>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.35">
@@ -27982,29 +27970,26 @@
         <v>275</v>
       </c>
       <c r="B718" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C718" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D718">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="E718">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H718">
-        <f t="shared" si="14"/>
-        <v>1185</v>
+        <f t="shared" si="15"/>
+        <v>370</v>
       </c>
       <c r="I718">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J718">
-        <v>415</v>
-      </c>
-      <c r="K718">
-        <v>770</v>
+        <v>370</v>
       </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.35">
@@ -28012,29 +27997,26 @@
         <v>275</v>
       </c>
       <c r="B719" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C719" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D719">
-        <v>2022</v>
+        <v>2005</v>
       </c>
       <c r="E719">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H719">
-        <f t="shared" si="14"/>
-        <v>1185</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="I719">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J719">
-        <v>415</v>
-      </c>
-      <c r="K719">
-        <v>770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.35">
@@ -28048,20 +28030,20 @@
         <v>21</v>
       </c>
       <c r="D720">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="E720">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H720">
-        <f t="shared" si="14"/>
-        <v>770</v>
+        <f t="shared" si="15"/>
+        <v>1185</v>
       </c>
       <c r="I720">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J720">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="K720">
         <v>770</v>
@@ -28078,20 +28060,20 @@
         <v>21</v>
       </c>
       <c r="D721">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="E721">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H721">
-        <f t="shared" si="14"/>
-        <v>770</v>
+        <f t="shared" si="15"/>
+        <v>1185</v>
       </c>
       <c r="I721">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J721">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="K721">
         <v>770</v>
@@ -28108,13 +28090,13 @@
         <v>21</v>
       </c>
       <c r="D722">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E722">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H722">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>770</v>
       </c>
       <c r="I722">
@@ -28138,17 +28120,17 @@
         <v>21</v>
       </c>
       <c r="D723">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E723">
         <v>3</v>
       </c>
       <c r="H723">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>770</v>
       </c>
       <c r="I723">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J723">
         <v>0</v>
@@ -28168,17 +28150,17 @@
         <v>21</v>
       </c>
       <c r="D724">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E724">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H724">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>770</v>
       </c>
       <c r="I724">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J724">
         <v>0</v>
@@ -28198,17 +28180,17 @@
         <v>21</v>
       </c>
       <c r="D725">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="E725">
         <v>3</v>
       </c>
       <c r="H725">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>770</v>
       </c>
       <c r="I725">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J725">
         <v>0</v>
@@ -28228,17 +28210,17 @@
         <v>21</v>
       </c>
       <c r="D726">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="E726">
         <v>3</v>
       </c>
       <c r="H726">
-        <f t="shared" si="14"/>
-        <v>1425</v>
+        <f t="shared" si="15"/>
+        <v>770</v>
       </c>
       <c r="I726">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J726">
         <v>0</v>
@@ -28246,9 +28228,6 @@
       <c r="K726">
         <v>770</v>
       </c>
-      <c r="L726">
-        <v>655</v>
-      </c>
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
@@ -28261,17 +28240,17 @@
         <v>21</v>
       </c>
       <c r="D727">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E727">
         <v>3</v>
       </c>
       <c r="H727">
-        <f t="shared" si="14"/>
-        <v>1425</v>
+        <f t="shared" si="15"/>
+        <v>770</v>
       </c>
       <c r="I727">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J727">
         <v>0</v>
@@ -28279,9 +28258,6 @@
       <c r="K727">
         <v>770</v>
       </c>
-      <c r="L727">
-        <v>655</v>
-      </c>
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
@@ -28294,17 +28270,17 @@
         <v>21</v>
       </c>
       <c r="D728">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E728">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H728">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1425</v>
       </c>
       <c r="I728">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J728">
         <v>0</v>
@@ -28321,32 +28297,32 @@
         <v>275</v>
       </c>
       <c r="B729" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C729" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D729">
-        <v>2023</v>
+        <v>2005</v>
       </c>
       <c r="E729">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H729">
-        <f t="shared" si="14"/>
-        <v>930</v>
+        <f t="shared" si="15"/>
+        <v>1425</v>
       </c>
       <c r="I729">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J729">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="K729">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="L729">
-        <v>550</v>
+        <v>655</v>
       </c>
     </row>
     <row r="730" spans="1:12" x14ac:dyDescent="0.35">
@@ -28354,32 +28330,32 @@
         <v>275</v>
       </c>
       <c r="B730" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C730" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D730">
-        <v>2022</v>
+        <v>2003</v>
       </c>
       <c r="E730">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H730">
-        <f t="shared" si="14"/>
-        <v>870</v>
+        <f t="shared" si="15"/>
+        <v>1425</v>
       </c>
       <c r="I730">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J730">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="K730">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="L730">
-        <v>550</v>
+        <v>655</v>
       </c>
     </row>
     <row r="731" spans="1:12" x14ac:dyDescent="0.35">
@@ -28393,23 +28369,23 @@
         <v>45</v>
       </c>
       <c r="D731">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E731">
         <v>2</v>
       </c>
       <c r="H731">
-        <f t="shared" si="14"/>
-        <v>750</v>
+        <f t="shared" si="15"/>
+        <v>930</v>
       </c>
       <c r="I731">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J731">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="K731">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L731">
         <v>550</v>
@@ -28426,23 +28402,23 @@
         <v>45</v>
       </c>
       <c r="D732">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E732">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H732">
-        <f t="shared" si="14"/>
-        <v>890</v>
+        <f t="shared" si="15"/>
+        <v>870</v>
       </c>
       <c r="I732">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J732">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="K732">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="L732">
         <v>550</v>
@@ -28459,14 +28435,14 @@
         <v>45</v>
       </c>
       <c r="D733">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E733">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H733">
-        <f t="shared" si="14"/>
-        <v>890</v>
+        <f t="shared" si="15"/>
+        <v>750</v>
       </c>
       <c r="I733">
         <v>1</v>
@@ -28475,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="K733">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="L733">
         <v>550</v>
@@ -28492,13 +28468,13 @@
         <v>45</v>
       </c>
       <c r="D734">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E734">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H734">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>890</v>
       </c>
       <c r="I734">
@@ -28525,17 +28501,17 @@
         <v>45</v>
       </c>
       <c r="D735">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E735">
+        <v>3</v>
+      </c>
+      <c r="H735">
+        <f t="shared" si="15"/>
+        <v>890</v>
+      </c>
+      <c r="I735">
         <v>1</v>
-      </c>
-      <c r="H735">
-        <f t="shared" si="14"/>
-        <v>890</v>
-      </c>
-      <c r="I735">
-        <v>0</v>
       </c>
       <c r="J735">
         <v>0</v>
@@ -28558,17 +28534,17 @@
         <v>45</v>
       </c>
       <c r="D736">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E736">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H736">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>890</v>
       </c>
       <c r="I736">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J736">
         <v>0</v>
@@ -28591,13 +28567,13 @@
         <v>45</v>
       </c>
       <c r="D737">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="E737">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H737">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>890</v>
       </c>
       <c r="I737">
@@ -28624,23 +28600,23 @@
         <v>45</v>
       </c>
       <c r="D738">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="E738">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H738">
-        <f t="shared" si="14"/>
-        <v>850</v>
+        <f t="shared" si="15"/>
+        <v>890</v>
       </c>
       <c r="I738">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J738">
         <v>0</v>
       </c>
       <c r="K738">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="L738">
         <v>550</v>
@@ -28657,23 +28633,23 @@
         <v>45</v>
       </c>
       <c r="D739">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E739">
         <v>3</v>
       </c>
       <c r="H739">
-        <f t="shared" si="14"/>
-        <v>850</v>
+        <f t="shared" si="15"/>
+        <v>890</v>
       </c>
       <c r="I739">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J739">
         <v>0</v>
       </c>
       <c r="K739">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="L739">
         <v>550</v>
@@ -28684,26 +28660,32 @@
         <v>275</v>
       </c>
       <c r="B740" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C740" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D740">
-        <v>2023</v>
+        <v>2007</v>
       </c>
       <c r="E740">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H740">
-        <f t="shared" si="14"/>
-        <v>500</v>
+        <f t="shared" si="15"/>
+        <v>850</v>
       </c>
       <c r="I740">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J740">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="K740">
+        <v>300</v>
+      </c>
+      <c r="L740">
+        <v>550</v>
       </c>
     </row>
     <row r="741" spans="1:12" x14ac:dyDescent="0.35">
@@ -28711,26 +28693,32 @@
         <v>275</v>
       </c>
       <c r="B741" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C741" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D741">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="E741">
         <v>3</v>
       </c>
       <c r="H741">
-        <f t="shared" si="14"/>
-        <v>500</v>
+        <f t="shared" si="15"/>
+        <v>850</v>
       </c>
       <c r="I741">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J741">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="K741">
+        <v>300</v>
+      </c>
+      <c r="L741">
+        <v>550</v>
       </c>
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.35">
@@ -28744,17 +28732,17 @@
         <v>90</v>
       </c>
       <c r="D742">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E742">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H742">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="I742">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J742">
         <v>500</v>
@@ -28771,13 +28759,13 @@
         <v>90</v>
       </c>
       <c r="D743">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E743">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H743">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="I743">
@@ -28798,17 +28786,17 @@
         <v>90</v>
       </c>
       <c r="D744">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E744">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H744">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="I744">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J744">
         <v>500</v>
@@ -28825,17 +28813,17 @@
         <v>90</v>
       </c>
       <c r="D745">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E745">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H745">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="I745">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J745">
         <v>500</v>
@@ -28852,13 +28840,13 @@
         <v>90</v>
       </c>
       <c r="D746">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E746">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H746">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="I746">
@@ -28879,20 +28867,20 @@
         <v>90</v>
       </c>
       <c r="D747">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="E747">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H747">
-        <f t="shared" si="14"/>
-        <v>260</v>
+        <f t="shared" si="15"/>
+        <v>500</v>
       </c>
       <c r="I747">
         <v>2</v>
       </c>
       <c r="J747">
-        <v>260</v>
+        <v>500</v>
       </c>
     </row>
     <row r="748" spans="1:12" x14ac:dyDescent="0.35">
@@ -28906,20 +28894,20 @@
         <v>90</v>
       </c>
       <c r="D748">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="E748">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H748">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>500</v>
       </c>
       <c r="I748">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J748">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="749" spans="1:12" x14ac:dyDescent="0.35">
@@ -28927,26 +28915,26 @@
         <v>275</v>
       </c>
       <c r="B749" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="C749" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="D749">
-        <v>2024</v>
+        <v>2007</v>
       </c>
       <c r="E749">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H749">
-        <f t="shared" si="14"/>
-        <v>300</v>
+        <f t="shared" si="15"/>
+        <v>260</v>
       </c>
       <c r="I749">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J749">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="750" spans="1:12" x14ac:dyDescent="0.35">
@@ -28954,26 +28942,26 @@
         <v>275</v>
       </c>
       <c r="B750" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="C750" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="D750">
-        <v>2022</v>
+        <v>2003</v>
       </c>
       <c r="E750">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H750">
-        <f t="shared" si="14"/>
-        <v>300</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="I750">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J750">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:12" x14ac:dyDescent="0.35">
@@ -28987,20 +28975,20 @@
         <v>165</v>
       </c>
       <c r="D751">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="E751">
         <v>1</v>
       </c>
       <c r="H751">
-        <f t="shared" si="14"/>
-        <v>500</v>
+        <f t="shared" si="15"/>
+        <v>300</v>
       </c>
       <c r="I751">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J751">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="752" spans="1:12" x14ac:dyDescent="0.35">
@@ -29014,20 +29002,20 @@
         <v>165</v>
       </c>
       <c r="D752">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="E752">
         <v>3</v>
       </c>
       <c r="H752">
-        <f t="shared" si="14"/>
-        <v>500</v>
+        <f t="shared" si="15"/>
+        <v>300</v>
       </c>
       <c r="I752">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J752">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.35">
@@ -29041,13 +29029,13 @@
         <v>165</v>
       </c>
       <c r="D753">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E753">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H753">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="I753">
@@ -29068,13 +29056,13 @@
         <v>165</v>
       </c>
       <c r="D754">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E754">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H754">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="I754">
@@ -29095,17 +29083,17 @@
         <v>165</v>
       </c>
       <c r="D755">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E755">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H755">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="I755">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J755">
         <v>500</v>
@@ -29122,17 +29110,17 @@
         <v>165</v>
       </c>
       <c r="D756">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E756">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H756">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="I756">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J756">
         <v>500</v>
@@ -29149,17 +29137,17 @@
         <v>165</v>
       </c>
       <c r="D757">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="E757">
         <v>2</v>
       </c>
       <c r="H757">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="I757">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J757">
         <v>500</v>
@@ -29176,17 +29164,17 @@
         <v>165</v>
       </c>
       <c r="D758">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="E758">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H758">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>500</v>
       </c>
       <c r="I758">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J758">
         <v>500</v>
@@ -29197,26 +29185,26 @@
         <v>275</v>
       </c>
       <c r="B759" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="C759" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="D759">
-        <v>2023</v>
+        <v>2007</v>
       </c>
       <c r="E759">
         <v>2</v>
       </c>
       <c r="H759">
-        <f t="shared" si="14"/>
-        <v>310</v>
+        <f t="shared" si="15"/>
+        <v>500</v>
       </c>
       <c r="I759">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J759">
-        <v>310</v>
+        <v>500</v>
       </c>
     </row>
     <row r="760" spans="1:10" x14ac:dyDescent="0.35">
@@ -29224,26 +29212,26 @@
         <v>275</v>
       </c>
       <c r="B760" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="C760" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="D760">
-        <v>2022</v>
+        <v>2003</v>
       </c>
       <c r="E760">
         <v>1</v>
       </c>
       <c r="H760">
-        <f t="shared" si="14"/>
-        <v>310</v>
+        <f t="shared" si="15"/>
+        <v>500</v>
       </c>
       <c r="I760">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J760">
-        <v>310</v>
+        <v>500</v>
       </c>
     </row>
     <row r="761" spans="1:10" x14ac:dyDescent="0.35">
@@ -29257,17 +29245,17 @@
         <v>103</v>
       </c>
       <c r="D761">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E761">
         <v>2</v>
       </c>
       <c r="H761">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>310</v>
       </c>
       <c r="I761">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J761">
         <v>310</v>
@@ -29284,13 +29272,13 @@
         <v>103</v>
       </c>
       <c r="D762">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E762">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H762">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>310</v>
       </c>
       <c r="I762">
@@ -29311,13 +29299,13 @@
         <v>103</v>
       </c>
       <c r="D763">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E763">
         <v>2</v>
       </c>
       <c r="H763">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>310</v>
       </c>
       <c r="I763">
@@ -29338,13 +29326,13 @@
         <v>103</v>
       </c>
       <c r="D764">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E764">
         <v>2</v>
       </c>
       <c r="H764">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>310</v>
       </c>
       <c r="I764">
@@ -29365,13 +29353,13 @@
         <v>103</v>
       </c>
       <c r="D765">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="E765">
         <v>2</v>
       </c>
       <c r="H765">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>310</v>
       </c>
       <c r="I765">
@@ -29392,20 +29380,20 @@
         <v>103</v>
       </c>
       <c r="D766">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="E766">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H766">
-        <f t="shared" si="14"/>
-        <v>160</v>
+        <f t="shared" si="15"/>
+        <v>310</v>
       </c>
       <c r="I766">
         <v>2</v>
       </c>
       <c r="J766">
-        <v>160</v>
+        <v>310</v>
       </c>
     </row>
     <row r="767" spans="1:10" x14ac:dyDescent="0.35">
@@ -29419,20 +29407,20 @@
         <v>103</v>
       </c>
       <c r="D767">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E767">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H767">
-        <f t="shared" si="14"/>
-        <v>160</v>
+        <f t="shared" si="15"/>
+        <v>310</v>
       </c>
       <c r="I767">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J767">
-        <v>160</v>
+        <v>310</v>
       </c>
     </row>
     <row r="768" spans="1:10" x14ac:dyDescent="0.35">
@@ -29440,26 +29428,26 @@
         <v>275</v>
       </c>
       <c r="B768" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C768" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="D768">
-        <v>2024</v>
+        <v>2008</v>
       </c>
       <c r="E768">
         <v>1</v>
       </c>
       <c r="H768">
-        <f t="shared" si="14"/>
-        <v>280</v>
+        <f t="shared" si="15"/>
+        <v>160</v>
       </c>
       <c r="I768">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J768">
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="769" spans="1:12" x14ac:dyDescent="0.35">
@@ -29467,26 +29455,26 @@
         <v>275</v>
       </c>
       <c r="B769" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C769" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="D769">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="E769">
         <v>1</v>
       </c>
       <c r="H769">
-        <f t="shared" ref="H769:H832" si="15" xml:space="preserve"> SUM(J769:Y769)</f>
-        <v>280</v>
+        <f t="shared" si="15"/>
+        <v>160</v>
       </c>
       <c r="I769">
         <v>1</v>
       </c>
       <c r="J769">
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="770" spans="1:12" x14ac:dyDescent="0.35">
@@ -29500,17 +29488,17 @@
         <v>39</v>
       </c>
       <c r="D770">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="E770">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H770">
         <f t="shared" si="15"/>
         <v>280</v>
       </c>
       <c r="I770">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J770">
         <v>280</v>
@@ -29527,17 +29515,17 @@
         <v>39</v>
       </c>
       <c r="D771">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="E771">
         <v>1</v>
       </c>
       <c r="H771">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H771:H834" si="16" xml:space="preserve"> SUM(J771:Y771)</f>
         <v>280</v>
       </c>
       <c r="I771">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J771">
         <v>280</v>
@@ -29554,17 +29542,17 @@
         <v>39</v>
       </c>
       <c r="D772">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E772">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H772">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>280</v>
       </c>
       <c r="I772">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J772">
         <v>280</v>
@@ -29581,26 +29569,20 @@
         <v>39</v>
       </c>
       <c r="D773">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="E773">
         <v>1</v>
       </c>
       <c r="H773">
-        <f t="shared" si="15"/>
-        <v>900</v>
+        <f t="shared" si="16"/>
+        <v>280</v>
       </c>
       <c r="I773">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J773">
-        <v>0</v>
-      </c>
-      <c r="K773">
-        <v>500</v>
-      </c>
-      <c r="L773">
-        <v>400</v>
+        <v>280</v>
       </c>
     </row>
     <row r="774" spans="1:12" x14ac:dyDescent="0.35">
@@ -29608,26 +29590,26 @@
         <v>275</v>
       </c>
       <c r="B774" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C774" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D774">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E774">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H774">
-        <f t="shared" si="15"/>
-        <v>170</v>
+        <f t="shared" si="16"/>
+        <v>280</v>
       </c>
       <c r="I774">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J774">
-        <v>170</v>
+        <v>280</v>
       </c>
     </row>
     <row r="775" spans="1:12" x14ac:dyDescent="0.35">
@@ -29635,29 +29617,32 @@
         <v>275</v>
       </c>
       <c r="B775" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C775" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D775">
-        <v>2021</v>
+        <v>2002</v>
       </c>
       <c r="E775">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H775">
-        <f t="shared" si="15"/>
-        <v>260</v>
+        <f t="shared" si="16"/>
+        <v>900</v>
       </c>
       <c r="I775">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J775">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="K775">
-        <v>90</v>
+        <v>500</v>
+      </c>
+      <c r="L775">
+        <v>400</v>
       </c>
     </row>
     <row r="776" spans="1:12" x14ac:dyDescent="0.35">
@@ -29671,14 +29656,14 @@
         <v>25</v>
       </c>
       <c r="D776">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E776">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H776">
-        <f t="shared" si="15"/>
-        <v>260</v>
+        <f t="shared" si="16"/>
+        <v>170</v>
       </c>
       <c r="I776">
         <v>1</v>
@@ -29686,9 +29671,6 @@
       <c r="J776">
         <v>170</v>
       </c>
-      <c r="K776">
-        <v>90</v>
-      </c>
     </row>
     <row r="777" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
@@ -29701,20 +29683,23 @@
         <v>25</v>
       </c>
       <c r="D777">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="E777">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H777">
-        <f t="shared" si="15"/>
-        <v>95</v>
+        <f t="shared" si="16"/>
+        <v>260</v>
       </c>
       <c r="I777">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J777">
-        <v>95</v>
+        <v>170</v>
+      </c>
+      <c r="K777">
+        <v>90</v>
       </c>
     </row>
     <row r="778" spans="1:12" x14ac:dyDescent="0.35">
@@ -29728,20 +29713,23 @@
         <v>25</v>
       </c>
       <c r="D778">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="E778">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H778">
-        <f t="shared" si="15"/>
-        <v>95</v>
+        <f t="shared" si="16"/>
+        <v>260</v>
       </c>
       <c r="I778">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J778">
-        <v>95</v>
+        <v>170</v>
+      </c>
+      <c r="K778">
+        <v>90</v>
       </c>
     </row>
     <row r="779" spans="1:12" x14ac:dyDescent="0.35">
@@ -29755,20 +29743,20 @@
         <v>25</v>
       </c>
       <c r="D779">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E779">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H779">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>95</v>
       </c>
       <c r="I779">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J779">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="780" spans="1:12" x14ac:dyDescent="0.35">
@@ -29776,26 +29764,26 @@
         <v>275</v>
       </c>
       <c r="B780" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C780" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D780">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="E780">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H780">
-        <f t="shared" si="15"/>
-        <v>260</v>
+        <f t="shared" si="16"/>
+        <v>95</v>
       </c>
       <c r="I780">
         <v>0</v>
       </c>
       <c r="J780">
-        <v>260</v>
+        <v>95</v>
       </c>
     </row>
     <row r="781" spans="1:12" x14ac:dyDescent="0.35">
@@ -29803,26 +29791,26 @@
         <v>275</v>
       </c>
       <c r="B781" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C781" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D781">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="E781">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H781">
-        <f t="shared" si="15"/>
-        <v>260</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="I781">
         <v>0</v>
       </c>
       <c r="J781">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:12" x14ac:dyDescent="0.35">
@@ -29836,13 +29824,13 @@
         <v>5</v>
       </c>
       <c r="D782">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="E782">
         <v>1</v>
       </c>
       <c r="H782">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>260</v>
       </c>
       <c r="I782">
@@ -29863,13 +29851,13 @@
         <v>5</v>
       </c>
       <c r="D783">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="E783">
         <v>4</v>
       </c>
       <c r="H783">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>260</v>
       </c>
       <c r="I783">
@@ -29890,17 +29878,17 @@
         <v>5</v>
       </c>
       <c r="D784">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="E784">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H784">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>260</v>
       </c>
       <c r="I784">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J784">
         <v>260</v>
@@ -29917,17 +29905,17 @@
         <v>5</v>
       </c>
       <c r="D785">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="E785">
         <v>4</v>
       </c>
       <c r="H785">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>260</v>
       </c>
       <c r="I785">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J785">
         <v>260</v>
@@ -29944,17 +29932,17 @@
         <v>5</v>
       </c>
       <c r="D786">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="E786">
+        <v>4</v>
+      </c>
+      <c r="H786">
+        <f t="shared" si="16"/>
+        <v>260</v>
+      </c>
+      <c r="I786">
         <v>1</v>
-      </c>
-      <c r="H786">
-        <f t="shared" si="15"/>
-        <v>260</v>
-      </c>
-      <c r="I786">
-        <v>2</v>
       </c>
       <c r="J786">
         <v>260</v>
@@ -29965,29 +29953,26 @@
         <v>275</v>
       </c>
       <c r="B787" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="C787" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="D787">
-        <v>2023</v>
+        <v>2004</v>
       </c>
       <c r="E787">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H787">
-        <f t="shared" si="15"/>
-        <v>550</v>
+        <f t="shared" si="16"/>
+        <v>260</v>
       </c>
       <c r="I787">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J787">
-        <v>550</v>
-      </c>
-      <c r="K787">
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="788" spans="1:26" x14ac:dyDescent="0.35">
@@ -29995,29 +29980,26 @@
         <v>275</v>
       </c>
       <c r="B788" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="C788" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="D788">
-        <v>2021</v>
+        <v>2003</v>
       </c>
       <c r="E788">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H788">
-        <f t="shared" si="15"/>
-        <v>1020</v>
+        <f t="shared" si="16"/>
+        <v>260</v>
       </c>
       <c r="I788">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J788">
-        <v>550</v>
-      </c>
-      <c r="K788">
-        <v>470</v>
+        <v>260</v>
       </c>
     </row>
     <row r="789" spans="1:26" x14ac:dyDescent="0.35">
@@ -30031,23 +30013,23 @@
         <v>129</v>
       </c>
       <c r="D789">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E789">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H789">
-        <f t="shared" si="15"/>
-        <v>1020</v>
+        <f t="shared" si="16"/>
+        <v>550</v>
       </c>
       <c r="I789">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J789">
         <v>550</v>
       </c>
       <c r="K789">
-        <v>470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:26" x14ac:dyDescent="0.35">
@@ -30061,13 +30043,13 @@
         <v>129</v>
       </c>
       <c r="D790">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="E790">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H790">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1020</v>
       </c>
       <c r="I790">
@@ -30091,17 +30073,17 @@
         <v>129</v>
       </c>
       <c r="D791">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E791">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H791">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1020</v>
       </c>
       <c r="I791">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J791">
         <v>550</v>
@@ -30121,13 +30103,13 @@
         <v>129</v>
       </c>
       <c r="D792">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E792">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H792">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1020</v>
       </c>
       <c r="I792">
@@ -30151,17 +30133,17 @@
         <v>129</v>
       </c>
       <c r="D793">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="E793">
         <v>2</v>
       </c>
       <c r="H793">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1020</v>
       </c>
       <c r="I793">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J793">
         <v>550</v>
@@ -30181,13 +30163,13 @@
         <v>129</v>
       </c>
       <c r="D794">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="E794">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H794">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1020</v>
       </c>
       <c r="I794">
@@ -30211,17 +30193,17 @@
         <v>129</v>
       </c>
       <c r="D795">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="E795">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H795">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1020</v>
       </c>
       <c r="I795">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J795">
         <v>550</v>
@@ -30232,35 +30214,62 @@
     </row>
     <row r="796" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B796" t="s">
-        <v>284</v>
+        <v>128</v>
       </c>
       <c r="C796" t="s">
-        <v>285</v>
+        <v>129</v>
+      </c>
+      <c r="D796">
+        <v>2003</v>
+      </c>
+      <c r="E796">
+        <v>4</v>
       </c>
       <c r="H796">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z796" t="s">
-        <v>286</v>
+        <f t="shared" si="16"/>
+        <v>1020</v>
+      </c>
+      <c r="I796">
+        <v>5</v>
+      </c>
+      <c r="J796">
+        <v>550</v>
+      </c>
+      <c r="K796">
+        <v>470</v>
       </c>
     </row>
     <row r="797" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B797" t="s">
-        <v>287</v>
+        <v>128</v>
       </c>
       <c r="C797" t="s">
-        <v>288</v>
+        <v>129</v>
+      </c>
+      <c r="D797">
+        <v>1999</v>
+      </c>
+      <c r="E797">
+        <v>4</v>
       </c>
       <c r="H797">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1020</v>
+      </c>
+      <c r="I797">
+        <v>4</v>
+      </c>
+      <c r="J797">
+        <v>550</v>
+      </c>
+      <c r="K797">
+        <v>470</v>
       </c>
     </row>
     <row r="798" spans="1:26" x14ac:dyDescent="0.35">
@@ -30268,26 +30277,17 @@
         <v>277</v>
       </c>
       <c r="B798" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C798" t="s">
-        <v>290</v>
-      </c>
-      <c r="D798">
-        <v>2023</v>
-      </c>
-      <c r="E798">
-        <v>2</v>
+        <v>285</v>
       </c>
       <c r="H798">
-        <f t="shared" si="15"/>
-        <v>330</v>
-      </c>
-      <c r="I798">
-        <v>2</v>
-      </c>
-      <c r="J798">
-        <v>330</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z798" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="799" spans="1:26" x14ac:dyDescent="0.35">
@@ -30295,26 +30295,14 @@
         <v>277</v>
       </c>
       <c r="B799" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C799" t="s">
-        <v>292</v>
-      </c>
-      <c r="D799">
-        <v>2022</v>
-      </c>
-      <c r="E799">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="H799">
-        <f t="shared" si="15"/>
-        <v>200</v>
-      </c>
-      <c r="I799">
-        <v>1</v>
-      </c>
-      <c r="J799">
-        <v>200</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:26" x14ac:dyDescent="0.35">
@@ -30322,26 +30310,26 @@
         <v>277</v>
       </c>
       <c r="B800" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C800" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D800">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E800">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H800">
-        <f t="shared" si="15"/>
-        <v>200</v>
+        <f t="shared" si="16"/>
+        <v>330</v>
       </c>
       <c r="I800">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J800">
-        <v>200</v>
+        <v>330</v>
       </c>
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.35">
@@ -30355,20 +30343,20 @@
         <v>292</v>
       </c>
       <c r="D801">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E801">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H801">
-        <f t="shared" si="15"/>
-        <v>250</v>
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="I801">
         <v>1</v>
       </c>
       <c r="J801">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.35">
@@ -30382,20 +30370,20 @@
         <v>292</v>
       </c>
       <c r="D802">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E802">
         <v>3</v>
       </c>
       <c r="H802">
-        <f t="shared" si="15"/>
-        <v>250</v>
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="I802">
         <v>1</v>
       </c>
       <c r="J802">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.35">
@@ -30409,13 +30397,13 @@
         <v>292</v>
       </c>
       <c r="D803">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E803">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H803">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="I803">
@@ -30436,20 +30424,20 @@
         <v>292</v>
       </c>
       <c r="D804">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E804">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H804">
-        <f t="shared" si="15"/>
-        <v>150</v>
+        <f t="shared" si="16"/>
+        <v>250</v>
       </c>
       <c r="I804">
         <v>1</v>
       </c>
       <c r="J804">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.35">
@@ -30457,26 +30445,26 @@
         <v>277</v>
       </c>
       <c r="B805" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C805" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D805">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="E805">
+        <v>3</v>
+      </c>
+      <c r="H805">
+        <f t="shared" si="16"/>
+        <v>250</v>
+      </c>
+      <c r="I805">
         <v>1</v>
       </c>
-      <c r="H805">
-        <f t="shared" si="15"/>
-        <v>600</v>
-      </c>
-      <c r="I805">
-        <v>2</v>
-      </c>
       <c r="J805">
-        <v>600</v>
+        <v>250</v>
       </c>
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.35">
@@ -30484,26 +30472,26 @@
         <v>277</v>
       </c>
       <c r="B806" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C806" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D806">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="E806">
         <v>1</v>
       </c>
       <c r="H806">
-        <f t="shared" si="15"/>
-        <v>800</v>
+        <f t="shared" si="16"/>
+        <v>150</v>
       </c>
       <c r="I806">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J806">
-        <v>800</v>
+        <v>150</v>
       </c>
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.35">
@@ -30511,26 +30499,26 @@
         <v>277</v>
       </c>
       <c r="B807" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C807" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D807">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E807">
         <v>1</v>
       </c>
       <c r="H807">
-        <f t="shared" si="15"/>
-        <v>800</v>
+        <f t="shared" si="16"/>
+        <v>600</v>
       </c>
       <c r="I807">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J807">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.35">
@@ -30544,17 +30532,17 @@
         <v>296</v>
       </c>
       <c r="D808">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E808">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H808">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>800</v>
       </c>
       <c r="I808">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J808">
         <v>800</v>
@@ -30565,26 +30553,26 @@
         <v>277</v>
       </c>
       <c r="B809" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C809" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D809">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E809">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H809">
-        <f t="shared" si="15"/>
-        <v>650</v>
+        <f t="shared" si="16"/>
+        <v>800</v>
       </c>
       <c r="I809">
         <v>4</v>
       </c>
       <c r="J809">
-        <v>650</v>
+        <v>800</v>
       </c>
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.35">
@@ -30592,29 +30580,26 @@
         <v>277</v>
       </c>
       <c r="B810" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C810" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D810">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E810">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H810">
-        <f t="shared" si="15"/>
-        <v>920</v>
+        <f t="shared" si="16"/>
+        <v>800</v>
       </c>
       <c r="I810">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J810">
-        <v>650</v>
-      </c>
-      <c r="K810">
-        <v>270</v>
+        <v>800</v>
       </c>
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.35">
@@ -30628,23 +30613,20 @@
         <v>298</v>
       </c>
       <c r="D811">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="E811">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H811">
-        <f t="shared" si="15"/>
-        <v>270</v>
+        <f t="shared" si="16"/>
+        <v>650</v>
       </c>
       <c r="I811">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J811">
-        <v>0</v>
-      </c>
-      <c r="K811">
-        <v>270</v>
+        <v>650</v>
       </c>
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.35">
@@ -30658,20 +30640,20 @@
         <v>298</v>
       </c>
       <c r="D812">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="E812">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H812">
-        <f t="shared" si="15"/>
-        <v>270</v>
+        <f t="shared" si="16"/>
+        <v>920</v>
       </c>
       <c r="I812">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J812">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="K812">
         <v>270</v>
@@ -30682,26 +30664,29 @@
         <v>277</v>
       </c>
       <c r="B813" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C813" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D813">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E813">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H813">
-        <f t="shared" si="15"/>
-        <v>425</v>
+        <f t="shared" si="16"/>
+        <v>270</v>
       </c>
       <c r="I813">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J813">
-        <v>425</v>
+        <v>0</v>
+      </c>
+      <c r="K813">
+        <v>270</v>
       </c>
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.35">
@@ -30709,26 +30694,29 @@
         <v>277</v>
       </c>
       <c r="B814" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C814" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D814">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E814">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H814">
-        <f t="shared" si="15"/>
-        <v>425</v>
+        <f t="shared" si="16"/>
+        <v>270</v>
       </c>
       <c r="I814">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J814">
-        <v>425</v>
+        <v>0</v>
+      </c>
+      <c r="K814">
+        <v>270</v>
       </c>
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.35">
@@ -30742,20 +30730,20 @@
         <v>300</v>
       </c>
       <c r="D815">
-        <v>2000</v>
+        <v>2024</v>
       </c>
       <c r="E815">
         <v>4</v>
       </c>
       <c r="H815">
-        <f t="shared" si="15"/>
-        <v>200</v>
+        <f t="shared" si="16"/>
+        <v>425</v>
       </c>
       <c r="I815">
         <v>1</v>
       </c>
       <c r="J815">
-        <v>200</v>
+        <v>425</v>
       </c>
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.35">
@@ -30763,26 +30751,26 @@
         <v>277</v>
       </c>
       <c r="B816" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C816" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D816">
-        <v>2024</v>
+        <v>2008</v>
       </c>
       <c r="E816">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H816">
-        <f t="shared" si="15"/>
-        <v>160</v>
+        <f t="shared" si="16"/>
+        <v>425</v>
       </c>
       <c r="I816">
         <v>1</v>
       </c>
       <c r="J816">
-        <v>160</v>
+        <v>425</v>
       </c>
     </row>
     <row r="817" spans="1:26" x14ac:dyDescent="0.35">
@@ -30790,29 +30778,26 @@
         <v>277</v>
       </c>
       <c r="B817" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C817" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D817">
-        <v>2024</v>
+        <v>2000</v>
       </c>
       <c r="E817">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H817">
-        <f t="shared" si="15"/>
-        <v>280</v>
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
       <c r="I817">
         <v>1</v>
       </c>
       <c r="J817">
-        <v>280</v>
-      </c>
-      <c r="K817">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="818" spans="1:26" x14ac:dyDescent="0.35">
@@ -30820,29 +30805,26 @@
         <v>277</v>
       </c>
       <c r="B818" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C818" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D818">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="E818">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H818">
-        <f t="shared" si="15"/>
-        <v>170</v>
+        <f t="shared" si="16"/>
+        <v>160</v>
       </c>
       <c r="I818">
         <v>1</v>
       </c>
       <c r="J818">
-        <v>0</v>
-      </c>
-      <c r="K818">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="819" spans="1:26" x14ac:dyDescent="0.35">
@@ -30850,26 +30832,29 @@
         <v>277</v>
       </c>
       <c r="B819" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C819" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D819">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E819">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H819">
-        <f t="shared" si="15"/>
-        <v>600</v>
+        <f t="shared" si="16"/>
+        <v>280</v>
       </c>
       <c r="I819">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J819">
-        <v>600</v>
+        <v>280</v>
+      </c>
+      <c r="K819">
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:26" x14ac:dyDescent="0.35">
@@ -30877,26 +30862,29 @@
         <v>277</v>
       </c>
       <c r="B820" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C820" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D820">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E820">
         <v>3</v>
       </c>
       <c r="H820">
-        <f t="shared" si="15"/>
-        <v>600</v>
+        <f t="shared" si="16"/>
+        <v>170</v>
       </c>
       <c r="I820">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J820">
-        <v>600</v>
+        <v>0</v>
+      </c>
+      <c r="K820">
+        <v>170</v>
       </c>
     </row>
     <row r="821" spans="1:26" x14ac:dyDescent="0.35">
@@ -30910,17 +30898,17 @@
         <v>306</v>
       </c>
       <c r="D821">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="E821">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H821">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>600</v>
       </c>
       <c r="I821">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J821">
         <v>600</v>
@@ -30937,17 +30925,17 @@
         <v>306</v>
       </c>
       <c r="D822">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="E822">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H822">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>600</v>
       </c>
       <c r="I822">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J822">
         <v>600</v>
@@ -30964,17 +30952,17 @@
         <v>306</v>
       </c>
       <c r="D823">
-        <v>2005</v>
+        <v>2018</v>
       </c>
       <c r="E823">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H823">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>600</v>
       </c>
       <c r="I823">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J823">
         <v>600</v>
@@ -30985,17 +30973,26 @@
         <v>277</v>
       </c>
       <c r="B824" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C824" t="s">
-        <v>308</v>
+        <v>306</v>
+      </c>
+      <c r="D824">
+        <v>2008</v>
+      </c>
+      <c r="E824">
+        <v>2</v>
       </c>
       <c r="H824">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z824" t="s">
-        <v>309</v>
+        <f t="shared" si="16"/>
+        <v>600</v>
+      </c>
+      <c r="I824">
+        <v>2</v>
+      </c>
+      <c r="J824">
+        <v>600</v>
       </c>
     </row>
     <row r="825" spans="1:26" x14ac:dyDescent="0.35">
@@ -31003,17 +31000,26 @@
         <v>277</v>
       </c>
       <c r="B825" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C825" t="s">
-        <v>311</v>
+        <v>306</v>
+      </c>
+      <c r="D825">
+        <v>2005</v>
+      </c>
+      <c r="E825">
+        <v>1</v>
       </c>
       <c r="H825">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z825" t="s">
-        <v>312</v>
+        <f t="shared" si="16"/>
+        <v>600</v>
+      </c>
+      <c r="I825">
+        <v>3</v>
+      </c>
+      <c r="J825">
+        <v>600</v>
       </c>
     </row>
     <row r="826" spans="1:26" x14ac:dyDescent="0.35">
@@ -31021,29 +31027,17 @@
         <v>277</v>
       </c>
       <c r="B826" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C826" t="s">
-        <v>314</v>
-      </c>
-      <c r="D826">
-        <v>2021</v>
-      </c>
-      <c r="E826">
-        <v>3</v>
+        <v>308</v>
       </c>
       <c r="H826">
-        <f t="shared" si="15"/>
-        <v>620</v>
-      </c>
-      <c r="I826">
-        <v>3</v>
-      </c>
-      <c r="J826">
-        <v>420</v>
-      </c>
-      <c r="L826">
-        <v>200</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z826" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="827" spans="1:26" x14ac:dyDescent="0.35">
@@ -31051,32 +31045,17 @@
         <v>277</v>
       </c>
       <c r="B827" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C827" t="s">
-        <v>314</v>
-      </c>
-      <c r="D827">
-        <v>2018</v>
-      </c>
-      <c r="E827">
-        <v>2</v>
+        <v>311</v>
       </c>
       <c r="H827">
-        <f t="shared" si="15"/>
-        <v>620</v>
-      </c>
-      <c r="I827">
-        <v>2</v>
-      </c>
-      <c r="J827">
-        <v>420</v>
-      </c>
-      <c r="K827">
-        <v>0</v>
-      </c>
-      <c r="L827">
-        <v>200</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z827" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="828" spans="1:26" x14ac:dyDescent="0.35">
@@ -31090,26 +31069,23 @@
         <v>314</v>
       </c>
       <c r="D828">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E828">
         <v>3</v>
       </c>
       <c r="H828">
-        <f t="shared" si="15"/>
-        <v>270</v>
+        <f t="shared" si="16"/>
+        <v>620</v>
       </c>
       <c r="I828">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J828">
-        <v>0</v>
-      </c>
-      <c r="K828">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="L828">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="829" spans="1:26" x14ac:dyDescent="0.35">
@@ -31117,26 +31093,32 @@
         <v>277</v>
       </c>
       <c r="B829" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C829" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D829">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E829">
         <v>2</v>
       </c>
       <c r="H829">
-        <f t="shared" si="15"/>
-        <v>230</v>
+        <f t="shared" si="16"/>
+        <v>620</v>
       </c>
       <c r="I829">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J829">
-        <v>230</v>
+        <v>420</v>
+      </c>
+      <c r="K829">
+        <v>0</v>
+      </c>
+      <c r="L829">
+        <v>200</v>
       </c>
     </row>
     <row r="830" spans="1:26" x14ac:dyDescent="0.35">
@@ -31144,29 +31126,32 @@
         <v>277</v>
       </c>
       <c r="B830" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C830" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D830">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="E830">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H830">
-        <f t="shared" si="15"/>
-        <v>900</v>
+        <f t="shared" si="16"/>
+        <v>270</v>
       </c>
       <c r="I830">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J830">
-        <v>900</v>
-      </c>
-      <c r="Z830" t="s">
-        <v>350</v>
+        <v>0</v>
+      </c>
+      <c r="K830">
+        <v>270</v>
+      </c>
+      <c r="L830">
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:26" x14ac:dyDescent="0.35">
@@ -31174,17 +31159,26 @@
         <v>277</v>
       </c>
       <c r="B831" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C831" t="s">
-        <v>320</v>
+        <v>316</v>
+      </c>
+      <c r="D831">
+        <v>2022</v>
+      </c>
+      <c r="E831">
+        <v>2</v>
       </c>
       <c r="H831">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Z831" t="s">
-        <v>321</v>
+        <f t="shared" si="16"/>
+        <v>230</v>
+      </c>
+      <c r="I831">
+        <v>1</v>
+      </c>
+      <c r="J831">
+        <v>230</v>
       </c>
     </row>
     <row r="832" spans="1:26" x14ac:dyDescent="0.35">
@@ -31192,17 +31186,29 @@
         <v>277</v>
       </c>
       <c r="B832" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C832" t="s">
-        <v>323</v>
+        <v>318</v>
+      </c>
+      <c r="D832">
+        <v>2022</v>
+      </c>
+      <c r="E832">
+        <v>4</v>
       </c>
       <c r="H832">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>900</v>
+      </c>
+      <c r="I832">
+        <v>6</v>
+      </c>
+      <c r="J832">
+        <v>900</v>
       </c>
       <c r="Z832" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
     </row>
     <row r="833" spans="1:26" x14ac:dyDescent="0.35">
@@ -31210,29 +31216,17 @@
         <v>277</v>
       </c>
       <c r="B833" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C833" t="s">
-        <v>326</v>
-      </c>
-      <c r="D833">
-        <v>2021</v>
-      </c>
-      <c r="E833">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="H833">
-        <f t="shared" ref="H833:H866" si="16" xml:space="preserve"> SUM(J833:Y833)</f>
-        <v>420</v>
-      </c>
-      <c r="I833">
-        <v>3</v>
-      </c>
-      <c r="J833">
-        <v>420</v>
-      </c>
-      <c r="K833">
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z833" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="834" spans="1:26" x14ac:dyDescent="0.35">
@@ -31240,29 +31234,17 @@
         <v>277</v>
       </c>
       <c r="B834" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C834" t="s">
-        <v>326</v>
-      </c>
-      <c r="D834">
-        <v>2017</v>
-      </c>
-      <c r="E834">
-        <v>3</v>
+        <v>323</v>
       </c>
       <c r="H834">
         <f t="shared" si="16"/>
-        <v>420</v>
-      </c>
-      <c r="I834">
-        <v>3</v>
-      </c>
-      <c r="J834">
-        <v>420</v>
-      </c>
-      <c r="K834">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Z834" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="835" spans="1:26" x14ac:dyDescent="0.35">
@@ -31276,17 +31258,17 @@
         <v>326</v>
       </c>
       <c r="D835">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="E835">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H835">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="H835:H868" si="17" xml:space="preserve"> SUM(J835:Y835)</f>
         <v>420</v>
       </c>
       <c r="I835">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J835">
         <v>420</v>
@@ -31306,17 +31288,17 @@
         <v>326</v>
       </c>
       <c r="D836">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E836">
         <v>3</v>
       </c>
       <c r="H836">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>420</v>
       </c>
       <c r="I836">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J836">
         <v>420</v>
@@ -31336,23 +31318,23 @@
         <v>326</v>
       </c>
       <c r="D837">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="E837">
         <v>3</v>
       </c>
       <c r="H837">
-        <f t="shared" si="16"/>
-        <v>690</v>
+        <f t="shared" si="17"/>
+        <v>420</v>
       </c>
       <c r="I837">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J837">
         <v>420</v>
       </c>
       <c r="K837">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:26" x14ac:dyDescent="0.35">
@@ -31360,26 +31342,29 @@
         <v>277</v>
       </c>
       <c r="B838" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C838" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D838">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E838">
         <v>3</v>
       </c>
       <c r="H838">
-        <f t="shared" si="16"/>
-        <v>1200</v>
+        <f t="shared" si="17"/>
+        <v>420</v>
       </c>
       <c r="I838">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J838">
-        <v>1200</v>
+        <v>420</v>
+      </c>
+      <c r="K838">
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:26" x14ac:dyDescent="0.35">
@@ -31387,26 +31372,29 @@
         <v>277</v>
       </c>
       <c r="B839" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C839" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D839">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="E839">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H839">
-        <f t="shared" si="16"/>
-        <v>1200</v>
+        <f t="shared" si="17"/>
+        <v>690</v>
       </c>
       <c r="I839">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J839">
-        <v>1200</v>
+        <v>420</v>
+      </c>
+      <c r="K839">
+        <v>270</v>
       </c>
     </row>
     <row r="840" spans="1:26" x14ac:dyDescent="0.35">
@@ -31420,17 +31408,17 @@
         <v>328</v>
       </c>
       <c r="D840">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="E840">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H840">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1200</v>
       </c>
       <c r="I840">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J840">
         <v>1200</v>
@@ -31447,20 +31435,20 @@
         <v>328</v>
       </c>
       <c r="D841">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E841">
         <v>2</v>
       </c>
       <c r="H841">
-        <f t="shared" si="16"/>
-        <v>450</v>
+        <f t="shared" si="17"/>
+        <v>1200</v>
       </c>
       <c r="I841">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J841">
-        <v>450</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="842" spans="1:26" x14ac:dyDescent="0.35">
@@ -31474,20 +31462,20 @@
         <v>328</v>
       </c>
       <c r="D842">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E842">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H842">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1200</v>
       </c>
       <c r="I842">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J842">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="843" spans="1:26" x14ac:dyDescent="0.35">
@@ -31495,29 +31483,26 @@
         <v>277</v>
       </c>
       <c r="B843" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C843" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D843">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="E843">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H843">
-        <f t="shared" si="16"/>
-        <v>260</v>
+        <f t="shared" si="17"/>
+        <v>450</v>
       </c>
       <c r="I843">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J843">
-        <v>260</v>
-      </c>
-      <c r="K843">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="844" spans="1:26" x14ac:dyDescent="0.35">
@@ -31525,29 +31510,26 @@
         <v>277</v>
       </c>
       <c r="B844" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C844" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D844">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E844">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H844">
-        <f t="shared" si="16"/>
-        <v>500</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="I844">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J844">
         <v>0</v>
-      </c>
-      <c r="K844">
-        <v>500</v>
       </c>
     </row>
     <row r="845" spans="1:26" x14ac:dyDescent="0.35">
@@ -31561,23 +31543,23 @@
         <v>330</v>
       </c>
       <c r="D845">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="E845">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H845">
-        <f t="shared" si="16"/>
-        <v>500</v>
+        <f t="shared" si="17"/>
+        <v>260</v>
       </c>
       <c r="I845">
         <v>2</v>
       </c>
       <c r="J845">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="K845">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:26" x14ac:dyDescent="0.35">
@@ -31591,13 +31573,13 @@
         <v>330</v>
       </c>
       <c r="D846">
-        <v>2007</v>
+        <v>2022</v>
       </c>
       <c r="E846">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H846">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>500</v>
       </c>
       <c r="I846">
@@ -31615,26 +31597,29 @@
         <v>277</v>
       </c>
       <c r="B847" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C847" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D847">
-        <v>2024</v>
+        <v>2010</v>
       </c>
       <c r="E847">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H847">
-        <f t="shared" si="16"/>
-        <v>330</v>
+        <f t="shared" si="17"/>
+        <v>500</v>
       </c>
       <c r="I847">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J847">
-        <v>330</v>
+        <v>0</v>
+      </c>
+      <c r="K847">
+        <v>500</v>
       </c>
     </row>
     <row r="848" spans="1:26" x14ac:dyDescent="0.35">
@@ -31642,17 +31627,29 @@
         <v>277</v>
       </c>
       <c r="B848" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C848" t="s">
-        <v>33</v>
+        <v>330</v>
+      </c>
+      <c r="D848">
+        <v>2007</v>
+      </c>
+      <c r="E848">
+        <v>4</v>
       </c>
       <c r="H848">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z848" t="s">
-        <v>334</v>
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="I848">
+        <v>2</v>
+      </c>
+      <c r="J848">
+        <v>0</v>
+      </c>
+      <c r="K848">
+        <v>500</v>
       </c>
     </row>
     <row r="849" spans="1:26" x14ac:dyDescent="0.35">
@@ -31660,26 +31657,26 @@
         <v>277</v>
       </c>
       <c r="B849" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C849" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D849">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E849">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H849">
-        <f t="shared" si="16"/>
-        <v>590</v>
+        <f t="shared" si="17"/>
+        <v>330</v>
       </c>
       <c r="I849">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J849">
-        <v>590</v>
+        <v>330</v>
       </c>
     </row>
     <row r="850" spans="1:26" x14ac:dyDescent="0.35">
@@ -31687,26 +31684,17 @@
         <v>277</v>
       </c>
       <c r="B850" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C850" t="s">
-        <v>336</v>
-      </c>
-      <c r="D850">
-        <v>2019</v>
-      </c>
-      <c r="E850">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H850">
-        <f t="shared" si="16"/>
-        <v>590</v>
-      </c>
-      <c r="I850">
-        <v>4</v>
-      </c>
-      <c r="J850">
-        <v>590</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z850" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="851" spans="1:26" x14ac:dyDescent="0.35">
@@ -31714,17 +31702,26 @@
         <v>277</v>
       </c>
       <c r="B851" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C851" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="D851">
+        <v>2022</v>
+      </c>
+      <c r="E851">
+        <v>4</v>
       </c>
       <c r="H851">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z851" t="s">
-        <v>339</v>
+        <f t="shared" si="17"/>
+        <v>590</v>
+      </c>
+      <c r="I851">
+        <v>3</v>
+      </c>
+      <c r="J851">
+        <v>590</v>
       </c>
     </row>
     <row r="852" spans="1:26" x14ac:dyDescent="0.35">
@@ -31732,17 +31729,26 @@
         <v>277</v>
       </c>
       <c r="B852" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C852" t="s">
-        <v>341</v>
+        <v>336</v>
+      </c>
+      <c r="D852">
+        <v>2019</v>
+      </c>
+      <c r="E852">
+        <v>3</v>
       </c>
       <c r="H852">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z852" t="s">
-        <v>334</v>
+        <f t="shared" si="17"/>
+        <v>590</v>
+      </c>
+      <c r="I852">
+        <v>4</v>
+      </c>
+      <c r="J852">
+        <v>590</v>
       </c>
     </row>
     <row r="853" spans="1:26" x14ac:dyDescent="0.35">
@@ -31750,26 +31756,17 @@
         <v>277</v>
       </c>
       <c r="B853" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C853" t="s">
-        <v>343</v>
-      </c>
-      <c r="D853">
-        <v>2023</v>
-      </c>
-      <c r="E853">
-        <v>3</v>
+        <v>338</v>
       </c>
       <c r="H853">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="I853">
-        <v>1</v>
-      </c>
-      <c r="J853">
-        <v>400</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z853" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="854" spans="1:26" x14ac:dyDescent="0.35">
@@ -31777,26 +31774,17 @@
         <v>277</v>
       </c>
       <c r="B854" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C854" t="s">
-        <v>343</v>
-      </c>
-      <c r="D854">
-        <v>2022</v>
-      </c>
-      <c r="E854">
-        <v>3</v>
+        <v>341</v>
       </c>
       <c r="H854">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="I854">
-        <v>3</v>
-      </c>
-      <c r="J854">
-        <v>400</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z854" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="855" spans="1:26" x14ac:dyDescent="0.35">
@@ -31810,13 +31798,13 @@
         <v>343</v>
       </c>
       <c r="D855">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="E855">
         <v>3</v>
       </c>
       <c r="H855">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>400</v>
       </c>
       <c r="I855">
@@ -31837,17 +31825,17 @@
         <v>343</v>
       </c>
       <c r="D856">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="E856">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H856">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>400</v>
       </c>
       <c r="I856">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J856">
         <v>400</v>
@@ -31864,20 +31852,20 @@
         <v>343</v>
       </c>
       <c r="D857">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="E857">
         <v>3</v>
       </c>
       <c r="H857">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>400</v>
       </c>
       <c r="I857">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J857">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="858" spans="1:26" x14ac:dyDescent="0.35">
@@ -31885,26 +31873,26 @@
         <v>277</v>
       </c>
       <c r="B858" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C858" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D858">
-        <v>2024</v>
+        <v>2011</v>
       </c>
       <c r="E858">
+        <v>2</v>
+      </c>
+      <c r="H858">
+        <f t="shared" si="17"/>
+        <v>400</v>
+      </c>
+      <c r="I858">
         <v>1</v>
       </c>
-      <c r="H858">
-        <f t="shared" si="16"/>
-        <v>200</v>
-      </c>
-      <c r="I858">
-        <v>2</v>
-      </c>
       <c r="J858">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="859" spans="1:26" x14ac:dyDescent="0.35">
@@ -31912,19 +31900,19 @@
         <v>277</v>
       </c>
       <c r="B859" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C859" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D859">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="E859">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H859">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I859">
@@ -31939,26 +31927,26 @@
         <v>277</v>
       </c>
       <c r="B860" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C860" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D860">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E860">
         <v>1</v>
       </c>
       <c r="H860">
-        <f t="shared" si="16"/>
-        <v>330</v>
+        <f t="shared" si="17"/>
+        <v>200</v>
       </c>
       <c r="I860">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J860">
-        <v>330</v>
+        <v>200</v>
       </c>
     </row>
     <row r="861" spans="1:26" x14ac:dyDescent="0.35">
@@ -31966,26 +31954,26 @@
         <v>277</v>
       </c>
       <c r="B861" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C861" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D861">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="E861">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H861">
-        <f t="shared" si="16"/>
-        <v>330</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="I861">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J861">
-        <v>330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:26" x14ac:dyDescent="0.35">
@@ -31999,17 +31987,17 @@
         <v>347</v>
       </c>
       <c r="D862">
-        <v>2008</v>
+        <v>2023</v>
       </c>
       <c r="E862">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H862">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>330</v>
       </c>
       <c r="I862">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J862">
         <v>330</v>
@@ -32026,20 +32014,20 @@
         <v>347</v>
       </c>
       <c r="D863">
-        <v>2000</v>
+        <v>2017</v>
       </c>
       <c r="E863">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H863">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>330</v>
       </c>
       <c r="I863">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J863">
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="864" spans="1:26" x14ac:dyDescent="0.35">
@@ -32047,26 +32035,26 @@
         <v>277</v>
       </c>
       <c r="B864" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C864" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D864">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="E864">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H864">
-        <f t="shared" si="16"/>
-        <v>220</v>
+        <f t="shared" si="17"/>
+        <v>330</v>
       </c>
       <c r="I864">
         <v>2</v>
       </c>
       <c r="J864">
-        <v>220</v>
+        <v>330</v>
       </c>
     </row>
     <row r="865" spans="1:10" x14ac:dyDescent="0.35">
@@ -32074,26 +32062,26 @@
         <v>277</v>
       </c>
       <c r="B865" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C865" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D865">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E865">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H865">
-        <f t="shared" si="16"/>
-        <v>220</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="I865">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J865">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:10" x14ac:dyDescent="0.35">
@@ -32107,23 +32095,78 @@
         <v>349</v>
       </c>
       <c r="D866">
+        <v>2023</v>
+      </c>
+      <c r="E866">
+        <v>2</v>
+      </c>
+      <c r="H866">
+        <f t="shared" si="17"/>
+        <v>220</v>
+      </c>
+      <c r="I866">
+        <v>2</v>
+      </c>
+      <c r="J866">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="867" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A867" t="s">
+        <v>277</v>
+      </c>
+      <c r="B867" t="s">
+        <v>348</v>
+      </c>
+      <c r="C867" t="s">
+        <v>349</v>
+      </c>
+      <c r="D867">
+        <v>2011</v>
+      </c>
+      <c r="E867">
+        <v>3</v>
+      </c>
+      <c r="H867">
+        <f t="shared" si="17"/>
+        <v>220</v>
+      </c>
+      <c r="I867">
+        <v>2</v>
+      </c>
+      <c r="J867">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="868" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A868" t="s">
+        <v>277</v>
+      </c>
+      <c r="B868" t="s">
+        <v>348</v>
+      </c>
+      <c r="C868" t="s">
+        <v>349</v>
+      </c>
+      <c r="D868">
         <v>2003</v>
       </c>
-      <c r="E866">
-        <v>3</v>
-      </c>
-      <c r="H866">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I866">
-        <v>0</v>
-      </c>
-      <c r="J866">
+      <c r="E868">
+        <v>3</v>
+      </c>
+      <c r="H868">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I868">
+        <v>0</v>
+      </c>
+      <c r="J868">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z868" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
